--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.91498026055344</v>
+        <v>9.914980260553522</v>
       </c>
       <c r="E2">
-        <v>16.98786173531144</v>
+        <v>16.98786173531148</v>
       </c>
       <c r="F2">
-        <v>85.79043419103375</v>
+        <v>85.7904341910336</v>
       </c>
       <c r="G2">
-        <v>68.38930257577194</v>
+        <v>68.38930257577186</v>
       </c>
       <c r="I2">
-        <v>17.25844333934573</v>
+        <v>17.25844333934579</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -432,16 +432,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.998573966712605</v>
+        <v>8.998573966712661</v>
       </c>
       <c r="E3">
-        <v>15.36231434640434</v>
+        <v>15.36231434640431</v>
       </c>
       <c r="F3">
-        <v>77.72596804690423</v>
+        <v>77.72596804690421</v>
       </c>
       <c r="G3">
-        <v>61.93953134161605</v>
+        <v>61.93953134161608</v>
       </c>
       <c r="I3">
         <v>15.63326403541248</v>
@@ -452,19 +452,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8.451786487478154</v>
+        <v>8.451786487478234</v>
       </c>
       <c r="E4">
-        <v>14.39069594263568</v>
+        <v>14.39069594263561</v>
       </c>
       <c r="F4">
-        <v>72.89459837454089</v>
+        <v>72.8945983745411</v>
       </c>
       <c r="G4">
-        <v>58.07348459852288</v>
+        <v>58.07348459852307</v>
       </c>
       <c r="I4">
-        <v>14.66198041214001</v>
+        <v>14.66198041213998</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -472,19 +472,19 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8.230382333016102</v>
+        <v>8.230382333016099</v>
       </c>
       <c r="E5">
-        <v>13.99690960227</v>
+        <v>13.99690960227004</v>
       </c>
       <c r="F5">
-        <v>70.9352131810714</v>
+        <v>70.93521318107142</v>
       </c>
       <c r="G5">
-        <v>56.50497481618615</v>
+        <v>56.50497481618616</v>
       </c>
       <c r="I5">
-        <v>14.26834435622341</v>
+        <v>14.26834435622344</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -492,19 +492,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8.193647276246946</v>
+        <v>8.193647276246931</v>
       </c>
       <c r="E6">
-        <v>13.93155287007724</v>
+        <v>13.9315528700773</v>
       </c>
       <c r="F6">
-        <v>70.60997305707035</v>
+        <v>70.60997305707085</v>
       </c>
       <c r="G6">
-        <v>56.24457640245403</v>
+        <v>56.24457640245445</v>
       </c>
       <c r="I6">
-        <v>14.20301313492767</v>
+        <v>14.20301313492772</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -512,19 +512,19 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>8.448797481427338</v>
+        <v>8.448797481427357</v>
       </c>
       <c r="E7">
         <v>14.38538112800533</v>
       </c>
       <c r="F7">
-        <v>72.86815664971462</v>
+        <v>72.86815664971455</v>
       </c>
       <c r="G7">
-        <v>58.05232032679425</v>
+        <v>58.05232032679417</v>
       </c>
       <c r="I7">
-        <v>14.65666758146099</v>
+        <v>14.656667581461</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -532,19 +532,19 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>9.593748878555623</v>
+        <v>9.593748878555784</v>
       </c>
       <c r="E8">
-        <v>16.41846935012001</v>
+        <v>16.41846935012007</v>
       </c>
       <c r="F8">
-        <v>82.96906927576772</v>
+        <v>82.96906927576808</v>
       </c>
       <c r="G8">
-        <v>66.13319969876504</v>
+        <v>66.13319969876535</v>
       </c>
       <c r="I8">
-        <v>16.68914466146346</v>
+        <v>16.68914466146357</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -552,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E9">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F9">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G9">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I9">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -572,19 +572,19 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E10">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F10">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G10">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I10">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -592,19 +592,19 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E11">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F11">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G11">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I11">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -612,19 +612,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E12">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F12">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G12">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I12">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -632,19 +632,19 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E13">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F13">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G13">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I13">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -652,19 +652,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E14">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F14">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G14">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I14">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -672,19 +672,19 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E15">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F15">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G15">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I15">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>12.21392512343222</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E16">
-        <v>21.04793521237845</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F16">
-        <v>105.7309705110381</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G16">
-        <v>84.33246889151846</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I16">
-        <v>21.31975381849984</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -712,19 +712,19 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>14.61115976042905</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E17">
-        <v>25.24600393941182</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F17">
-        <v>125.7750105024544</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G17">
-        <v>100.377267013804</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I17">
-        <v>25.52535341952283</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -732,19 +732,19 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>13.86924180445278</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E18">
-        <v>23.95134647057352</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F18">
-        <v>119.6824364173715</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G18">
-        <v>95.4961307620642</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I18">
-        <v>24.22745010822104</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -752,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>13.6728492539103</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E19">
-        <v>23.607915192834</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F19">
-        <v>118.0511254038143</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G19">
-        <v>94.18994581629269</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I19">
-        <v>23.88330845722335</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -772,19 +772,19 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E20">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F20">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G20">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I20">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -792,19 +792,19 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E21">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F21">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G21">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I21">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -812,19 +812,19 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E22">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F22">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G22">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I22">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -832,19 +832,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E23">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F23">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G23">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I23">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -852,19 +852,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E24">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F24">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G24">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I24">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -872,19 +872,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>14.80364076220459</v>
+        <v>12.21392512343207</v>
       </c>
       <c r="E25">
-        <v>25.58116786816342</v>
+        <v>21.04793521237844</v>
       </c>
       <c r="F25">
-        <v>127.3358991907804</v>
+        <v>105.7309705110385</v>
       </c>
       <c r="G25">
-        <v>101.6286314471406</v>
+        <v>84.33246889151873</v>
       </c>
       <c r="I25">
-        <v>25.86151048793907</v>
+        <v>21.31975381849989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.914980260553522</v>
+        <v>9.91498026055344</v>
       </c>
       <c r="E2">
-        <v>16.98786173531148</v>
+        <v>16.98786173531144</v>
       </c>
       <c r="F2">
-        <v>85.7904341910336</v>
+        <v>85.79043419103375</v>
       </c>
       <c r="G2">
-        <v>68.38930257577186</v>
+        <v>68.38930257577194</v>
       </c>
       <c r="I2">
-        <v>17.25844333934579</v>
+        <v>17.25844333934573</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -432,16 +432,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.998573966712661</v>
+        <v>8.998573966712605</v>
       </c>
       <c r="E3">
-        <v>15.36231434640431</v>
+        <v>15.36231434640434</v>
       </c>
       <c r="F3">
-        <v>77.72596804690421</v>
+        <v>77.72596804690423</v>
       </c>
       <c r="G3">
-        <v>61.93953134161608</v>
+        <v>61.93953134161605</v>
       </c>
       <c r="I3">
         <v>15.63326403541248</v>
@@ -452,19 +452,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8.451786487478234</v>
+        <v>8.451786487478154</v>
       </c>
       <c r="E4">
-        <v>14.39069594263561</v>
+        <v>14.39069594263568</v>
       </c>
       <c r="F4">
-        <v>72.8945983745411</v>
+        <v>72.89459837454089</v>
       </c>
       <c r="G4">
-        <v>58.07348459852307</v>
+        <v>58.07348459852288</v>
       </c>
       <c r="I4">
-        <v>14.66198041213998</v>
+        <v>14.66198041214001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -472,19 +472,19 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8.230382333016099</v>
+        <v>8.230382333016102</v>
       </c>
       <c r="E5">
-        <v>13.99690960227004</v>
+        <v>13.99690960227</v>
       </c>
       <c r="F5">
-        <v>70.93521318107142</v>
+        <v>70.9352131810714</v>
       </c>
       <c r="G5">
-        <v>56.50497481618616</v>
+        <v>56.50497481618615</v>
       </c>
       <c r="I5">
-        <v>14.26834435622344</v>
+        <v>14.26834435622341</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -492,19 +492,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8.193647276246931</v>
+        <v>8.193647276246946</v>
       </c>
       <c r="E6">
-        <v>13.9315528700773</v>
+        <v>13.93155287007724</v>
       </c>
       <c r="F6">
-        <v>70.60997305707085</v>
+        <v>70.60997305707035</v>
       </c>
       <c r="G6">
-        <v>56.24457640245445</v>
+        <v>56.24457640245403</v>
       </c>
       <c r="I6">
-        <v>14.20301313492772</v>
+        <v>14.20301313492767</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -512,19 +512,19 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>8.448797481427357</v>
+        <v>8.448797481427338</v>
       </c>
       <c r="E7">
         <v>14.38538112800533</v>
       </c>
       <c r="F7">
-        <v>72.86815664971455</v>
+        <v>72.86815664971462</v>
       </c>
       <c r="G7">
-        <v>58.05232032679417</v>
+        <v>58.05232032679425</v>
       </c>
       <c r="I7">
-        <v>14.656667581461</v>
+        <v>14.65666758146099</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -532,19 +532,19 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>9.593748878555784</v>
+        <v>9.593748878555623</v>
       </c>
       <c r="E8">
-        <v>16.41846935012007</v>
+        <v>16.41846935012001</v>
       </c>
       <c r="F8">
-        <v>82.96906927576808</v>
+        <v>82.96906927576772</v>
       </c>
       <c r="G8">
-        <v>66.13319969876535</v>
+        <v>66.13319969876504</v>
       </c>
       <c r="I8">
-        <v>16.68914466146357</v>
+        <v>16.68914466146346</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -552,19 +552,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E9">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F9">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G9">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I9">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -572,19 +572,19 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E10">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F10">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G10">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I10">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -592,19 +592,19 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E11">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F11">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G11">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I11">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -612,19 +612,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E12">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F12">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G12">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I12">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -632,19 +632,19 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E13">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F13">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G13">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I13">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -652,19 +652,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E14">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F14">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G14">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I14">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -672,19 +672,19 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E15">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F15">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G15">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I15">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>12.21392512343207</v>
+        <v>12.21392512343222</v>
       </c>
       <c r="E16">
-        <v>21.04793521237844</v>
+        <v>21.04793521237845</v>
       </c>
       <c r="F16">
-        <v>105.7309705110385</v>
+        <v>105.7309705110381</v>
       </c>
       <c r="G16">
-        <v>84.33246889151873</v>
+        <v>84.33246889151846</v>
       </c>
       <c r="I16">
-        <v>21.31975381849989</v>
+        <v>21.31975381849984</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -712,19 +712,19 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>12.21392512343207</v>
+        <v>14.61115976042905</v>
       </c>
       <c r="E17">
-        <v>21.04793521237844</v>
+        <v>25.24600393941182</v>
       </c>
       <c r="F17">
-        <v>105.7309705110385</v>
+        <v>125.7750105024544</v>
       </c>
       <c r="G17">
-        <v>84.33246889151873</v>
+        <v>100.377267013804</v>
       </c>
       <c r="I17">
-        <v>21.31975381849989</v>
+        <v>25.52535341952283</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -732,19 +732,19 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>12.21392512343207</v>
+        <v>13.86924180445278</v>
       </c>
       <c r="E18">
-        <v>21.04793521237844</v>
+        <v>23.95134647057352</v>
       </c>
       <c r="F18">
-        <v>105.7309705110385</v>
+        <v>119.6824364173715</v>
       </c>
       <c r="G18">
-        <v>84.33246889151873</v>
+        <v>95.4961307620642</v>
       </c>
       <c r="I18">
-        <v>21.31975381849989</v>
+        <v>24.22745010822104</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -752,19 +752,19 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>12.21392512343207</v>
+        <v>13.6728492539103</v>
       </c>
       <c r="E19">
-        <v>21.04793521237844</v>
+        <v>23.607915192834</v>
       </c>
       <c r="F19">
-        <v>105.7309705110385</v>
+        <v>118.0511254038143</v>
       </c>
       <c r="G19">
-        <v>84.33246889151873</v>
+        <v>94.18994581629269</v>
       </c>
       <c r="I19">
-        <v>21.31975381849989</v>
+        <v>23.88330845722335</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -772,19 +772,19 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E20">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F20">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G20">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I20">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -792,19 +792,19 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E21">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F21">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G21">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I21">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -812,19 +812,19 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E22">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F22">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G22">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I22">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -832,19 +832,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E23">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F23">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G23">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I23">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -852,19 +852,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E24">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F24">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G24">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I24">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -872,19 +872,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>12.21392512343207</v>
+        <v>14.80364076220459</v>
       </c>
       <c r="E25">
-        <v>21.04793521237844</v>
+        <v>25.58116786816342</v>
       </c>
       <c r="F25">
-        <v>105.7309705110385</v>
+        <v>127.3358991907804</v>
       </c>
       <c r="G25">
-        <v>84.33246889151873</v>
+        <v>101.6286314471406</v>
       </c>
       <c r="I25">
-        <v>21.31975381849989</v>
+        <v>25.86151048793907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,485 +406,560 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.91498026055344</v>
+        <v>9.88873959131366</v>
       </c>
       <c r="E2">
-        <v>16.98786173531144</v>
+        <v>16.98530097416657</v>
       </c>
       <c r="F2">
-        <v>85.79043419103375</v>
+        <v>85.66059341551309</v>
       </c>
       <c r="G2">
-        <v>68.38930257577194</v>
-      </c>
-      <c r="I2">
-        <v>17.25844333934573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>68.4470819080065</v>
+      </c>
+      <c r="H2">
+        <v>68.02112647470636</v>
+      </c>
+      <c r="J2">
+        <v>17.2446848963721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.998573966712605</v>
+        <v>8.975921369621274</v>
       </c>
       <c r="E3">
-        <v>15.36231434640434</v>
+        <v>15.36184531928861</v>
       </c>
       <c r="F3">
-        <v>77.72596804690423</v>
+        <v>77.61739586316986</v>
       </c>
       <c r="G3">
-        <v>61.93953134161605</v>
-      </c>
-      <c r="I3">
-        <v>15.63326403541248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>61.99912918555334</v>
+      </c>
+      <c r="H3">
+        <v>61.62712689841404</v>
+      </c>
+      <c r="J3">
+        <v>15.62266042918273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8.451786487478154</v>
+        <v>8.431055955414955</v>
       </c>
       <c r="E4">
-        <v>14.39069594263568</v>
+        <v>14.39107854866023</v>
       </c>
       <c r="F4">
-        <v>72.89459837454089</v>
+        <v>72.79685165115326</v>
       </c>
       <c r="G4">
-        <v>58.07348459852288</v>
-      </c>
-      <c r="I4">
-        <v>14.66198041214001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>58.13263659172318</v>
+      </c>
+      <c r="H4">
+        <v>57.79702231659708</v>
+      </c>
+      <c r="J4">
+        <v>14.6528639157202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>8.230382333016102</v>
+        <v>8.210394732880712</v>
       </c>
       <c r="E5">
-        <v>13.99690960227</v>
+        <v>13.99757182248238</v>
       </c>
       <c r="F5">
-        <v>70.9352131810714</v>
+        <v>70.84154020411833</v>
       </c>
       <c r="G5">
-        <v>56.50497481618615</v>
-      </c>
-      <c r="I5">
-        <v>14.26834435622341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>56.56369262694629</v>
+      </c>
+      <c r="H5">
+        <v>56.24387564681772</v>
+      </c>
+      <c r="J5">
+        <v>14.25976509867153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8.193647276246946</v>
+        <v>8.173781204350325</v>
       </c>
       <c r="E6">
-        <v>13.93155287007724</v>
+        <v>13.93225823921</v>
       </c>
       <c r="F6">
-        <v>70.60997305707035</v>
+        <v>70.51696050921502</v>
       </c>
       <c r="G6">
-        <v>56.24457640245403</v>
-      </c>
-      <c r="I6">
-        <v>14.20301313492767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>56.30320952327416</v>
+      </c>
+      <c r="H6">
+        <v>55.9860784540098</v>
+      </c>
+      <c r="J6">
+        <v>14.19451978963666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>8.448797481427338</v>
+        <v>8.428077103496754</v>
       </c>
       <c r="E7">
-        <v>14.38538112800533</v>
+        <v>14.38576774015652</v>
       </c>
       <c r="F7">
-        <v>72.86815664971462</v>
+        <v>72.7704660246705</v>
       </c>
       <c r="G7">
-        <v>58.05232032679425</v>
-      </c>
-      <c r="I7">
-        <v>14.65666758146099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>58.11146735991405</v>
+      </c>
+      <c r="H7">
+        <v>57.77606201691972</v>
+      </c>
+      <c r="J7">
+        <v>14.64755856791268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>9.593748878555623</v>
+        <v>9.568828559998174</v>
       </c>
       <c r="E8">
-        <v>16.41846935012001</v>
+        <v>16.41675425293187</v>
       </c>
       <c r="F8">
-        <v>82.96906927576772</v>
+        <v>82.84721013175908</v>
       </c>
       <c r="G8">
-        <v>66.13319969876504</v>
-      </c>
-      <c r="I8">
-        <v>16.68914466146346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>66.19204872105625</v>
+      </c>
+      <c r="H8">
+        <v>65.78411378146194</v>
+      </c>
+      <c r="J8">
+        <v>16.67660431387787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E9">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F9">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G9">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I9">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H9">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J9">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E10">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F10">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G10">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I10">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H10">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J10">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E11">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F11">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G11">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I11">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H11">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J11">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E12">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F12">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G12">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I12">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H12">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J12">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E13">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F13">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G13">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I13">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H13">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J13">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E14">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F14">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G14">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I14">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H14">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J14">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E15">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F15">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G15">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I15">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H15">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J15">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>12.21392512343222</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E16">
-        <v>21.04793521237845</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F16">
-        <v>105.7309705110381</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G16">
-        <v>84.33246889151846</v>
-      </c>
-      <c r="I16">
-        <v>21.31975381849984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H16">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J16">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>14.61115976042905</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E17">
-        <v>25.24600393941182</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F17">
-        <v>125.7750105024544</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G17">
-        <v>100.377267013804</v>
-      </c>
-      <c r="I17">
-        <v>25.52535341952283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H17">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J17">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>13.86924180445278</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E18">
-        <v>23.95134647057352</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F18">
-        <v>119.6824364173715</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G18">
-        <v>95.4961307620642</v>
-      </c>
-      <c r="I18">
-        <v>24.22745010822104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H18">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J18">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>13.6728492539103</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E19">
-        <v>23.607915192834</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F19">
-        <v>118.0511254038143</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G19">
-        <v>94.18994581629269</v>
-      </c>
-      <c r="I19">
-        <v>23.88330845722335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H19">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J19">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E20">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F20">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G20">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I20">
-        <v>25.86151048793907</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H20">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J20">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E21">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F21">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G21">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I21">
-        <v>25.86151048793907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H21">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J21">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E22">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F22">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G22">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I22">
-        <v>25.86151048793907</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H22">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J22">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E23">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F23">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G23">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I23">
-        <v>25.86151048793907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H23">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J23">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E24">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F24">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G24">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I24">
-        <v>25.86151048793907</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H24">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J24">
+        <v>21.29052355439459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>14.80364076220459</v>
+        <v>12.17440762381244</v>
       </c>
       <c r="E25">
-        <v>25.58116786816342</v>
+        <v>21.03257149249615</v>
       </c>
       <c r="F25">
-        <v>127.3358991907804</v>
+        <v>105.512849487222</v>
       </c>
       <c r="G25">
-        <v>101.6286314471406</v>
-      </c>
-      <c r="I25">
-        <v>25.86151048793907</v>
+        <v>84.35709995178516</v>
+      </c>
+      <c r="H25">
+        <v>83.82366310637443</v>
+      </c>
+      <c r="J25">
+        <v>21.29052355439459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,557 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>24.09099310661615</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>9.88873959131366</v>
+        <v>14.83379634311852</v>
       </c>
       <c r="E2">
-        <v>16.98530097416657</v>
+        <v>18.74885636233175</v>
       </c>
       <c r="F2">
-        <v>85.66059341551309</v>
+        <v>64.84208660163644</v>
       </c>
       <c r="G2">
-        <v>68.4470819080065</v>
+        <v>2.053394395966075</v>
       </c>
       <c r="H2">
-        <v>68.02112647470636</v>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.2446848963721</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>9.377141676519807</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>17.44211740332829</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>22.65807525775107</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>8.975921369621274</v>
+        <v>13.62964313459567</v>
       </c>
       <c r="E3">
-        <v>15.36184531928861</v>
+        <v>17.36338016939188</v>
       </c>
       <c r="F3">
-        <v>77.61739586316986</v>
+        <v>61.34228653687589</v>
       </c>
       <c r="G3">
-        <v>61.99912918555334</v>
+        <v>2.080314775607308</v>
       </c>
       <c r="H3">
-        <v>61.62712689841404</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.62266042918273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>8.944003614216694</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>16.09499159402154</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>21.76832300532501</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>8.431055955414955</v>
+        <v>12.87195556351323</v>
       </c>
       <c r="E4">
-        <v>14.39107854866023</v>
+        <v>16.48957450028942</v>
       </c>
       <c r="F4">
-        <v>72.79685165115326</v>
+        <v>59.24299293314311</v>
       </c>
       <c r="G4">
-        <v>58.13263659172318</v>
+        <v>2.096779723675153</v>
       </c>
       <c r="H4">
-        <v>57.79702231659708</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.6528639157202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>8.675566193849441</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>15.38705951212462</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>21.40312640910046</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>8.210394732880712</v>
+        <v>12.55788782008276</v>
       </c>
       <c r="E5">
-        <v>13.99757182248238</v>
+        <v>16.12693874179574</v>
       </c>
       <c r="F5">
-        <v>70.84154020411833</v>
+        <v>58.39860483311444</v>
       </c>
       <c r="G5">
-        <v>56.56369262694629</v>
+        <v>2.103496917398088</v>
       </c>
       <c r="H5">
-        <v>56.24387564681772</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.25976509867153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8.565352074132727</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>15.10872534025105</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>21.34232776367961</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>8.173781204350325</v>
+        <v>12.50539882031185</v>
       </c>
       <c r="E6">
-        <v>13.93225823921</v>
+        <v>16.06630869258831</v>
       </c>
       <c r="F6">
-        <v>70.51696050921502</v>
+        <v>58.25903413443881</v>
       </c>
       <c r="G6">
-        <v>56.30320952327416</v>
+        <v>2.104613377119589</v>
       </c>
       <c r="H6">
-        <v>55.9860784540098</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.19451978963666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8.54699666960278</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>15.06237987827864</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>21.76340845240467</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>8.428077103496754</v>
+        <v>12.86774223809489</v>
       </c>
       <c r="E7">
-        <v>14.38576774015652</v>
+        <v>16.48471127162862</v>
       </c>
       <c r="F7">
-        <v>72.7704660246705</v>
+        <v>59.23156175790475</v>
       </c>
       <c r="G7">
-        <v>58.11146735991405</v>
+        <v>2.096870254992199</v>
       </c>
       <c r="H7">
-        <v>57.77606201691972</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.64755856791268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8.674083361851672</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>15.3833143451496</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>23.59885640820234</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>9.568828559998174</v>
+        <v>14.42194844691848</v>
       </c>
       <c r="E8">
-        <v>16.41675425293187</v>
+        <v>18.27544688855638</v>
       </c>
       <c r="F8">
-        <v>82.84721013175908</v>
+        <v>63.62405011665645</v>
       </c>
       <c r="G8">
-        <v>66.19204872105625</v>
+        <v>2.06270562715614</v>
       </c>
       <c r="H8">
-        <v>65.78411378146194</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>16.67660431387787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9.228173192700824</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>16.98289300047885</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>27.2588797445962</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>12.17440762381244</v>
+        <v>17.36458158896098</v>
       </c>
       <c r="E9">
-        <v>21.03257149249615</v>
+        <v>21.64741670763786</v>
       </c>
       <c r="F9">
-        <v>105.512849487222</v>
+        <v>72.73125091132694</v>
       </c>
       <c r="G9">
-        <v>84.35709995178516</v>
+        <v>1.993824519453493</v>
       </c>
       <c r="H9">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>10.30805155881773</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>20.22740945603864</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>30.17404256715995</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>12.17440762381244</v>
+        <v>19.54029800074758</v>
       </c>
       <c r="E10">
-        <v>21.03257149249615</v>
+        <v>24.1255050090581</v>
       </c>
       <c r="F10">
-        <v>105.512849487222</v>
+        <v>79.9492316605841</v>
       </c>
       <c r="G10">
-        <v>84.35709995178516</v>
+        <v>1.939420706364296</v>
       </c>
       <c r="H10">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11.1251676629179</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>22.56813119507132</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>31.51174396921751</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>12.17440762381244</v>
+        <v>20.5608628782396</v>
       </c>
       <c r="E11">
-        <v>21.03257149249615</v>
+        <v>25.28403392042707</v>
       </c>
       <c r="F11">
-        <v>105.512849487222</v>
+        <v>83.50690184966383</v>
       </c>
       <c r="G11">
-        <v>84.35709995178516</v>
+        <v>1.912904964266862</v>
       </c>
       <c r="H11">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11.51276258293343</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>23.64769427224849</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>32.02313673742577</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>12.17440762381244</v>
+        <v>20.95546214424042</v>
       </c>
       <c r="E12">
-        <v>21.03257149249615</v>
+        <v>25.73140024422029</v>
       </c>
       <c r="F12">
-        <v>105.512849487222</v>
+        <v>84.93451980257115</v>
       </c>
       <c r="G12">
-        <v>84.35709995178516</v>
+        <v>1.902484869161265</v>
       </c>
       <c r="H12">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>11.66330353560452</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>24.06181087699451</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>31.91271684257828</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>12.17440762381244</v>
+        <v>20.87003796094735</v>
       </c>
       <c r="E13">
-        <v>21.03257149249615</v>
+        <v>25.63457833759056</v>
       </c>
       <c r="F13">
-        <v>105.512849487222</v>
+        <v>84.6249921494784</v>
       </c>
       <c r="G13">
-        <v>84.35709995178516</v>
+        <v>1.904748529527091</v>
       </c>
       <c r="H13">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11.63068241305761</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>23.97231995902575</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>31.55369604461449</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>12.17440762381244</v>
+        <v>20.59313625597021</v>
       </c>
       <c r="E14">
-        <v>21.03257149249615</v>
+        <v>25.32063444540594</v>
       </c>
       <c r="F14">
-        <v>105.512849487222</v>
+        <v>83.62345000242399</v>
       </c>
       <c r="G14">
-        <v>84.35709995178516</v>
+        <v>1.912056223822041</v>
       </c>
       <c r="H14">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11.5250609955772</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>23.68163383260462</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>31.3345346362555</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>12.17440762381244</v>
+        <v>20.42472458593849</v>
       </c>
       <c r="E15">
-        <v>21.03257149249615</v>
+        <v>25.12961940100056</v>
       </c>
       <c r="F15">
-        <v>105.512849487222</v>
+        <v>83.01570401517877</v>
       </c>
       <c r="G15">
-        <v>84.35709995178516</v>
+        <v>1.916478319939114</v>
       </c>
       <c r="H15">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11.46091197731606</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>23.50439141089997</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>30.08709291399442</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>12.17440762381244</v>
+        <v>19.47450184530631</v>
       </c>
       <c r="E16">
-        <v>21.03257149249615</v>
+        <v>24.0507354165497</v>
       </c>
       <c r="F16">
-        <v>105.512849487222</v>
+        <v>79.72633335094694</v>
       </c>
       <c r="G16">
-        <v>84.35709995178516</v>
+        <v>1.941108544195814</v>
       </c>
       <c r="H16">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>11.10026836252896</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>22.49811755968095</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>29.32663581207329</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>12.17440762381244</v>
+        <v>18.90162426251973</v>
       </c>
       <c r="E17">
-        <v>21.03257149249615</v>
+        <v>23.39929767865241</v>
       </c>
       <c r="F17">
-        <v>105.512849487222</v>
+        <v>77.79675222442869</v>
       </c>
       <c r="G17">
-        <v>84.35709995178516</v>
+        <v>1.955692696653755</v>
       </c>
       <c r="H17">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>10.88394749062823</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>21.88644418457107</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>28.89008052645944</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>12.17440762381244</v>
+        <v>18.57473086644727</v>
       </c>
       <c r="E18">
-        <v>21.03257149249615</v>
+        <v>23.02722019786496</v>
       </c>
       <c r="F18">
-        <v>105.512849487222</v>
+        <v>76.70516969782732</v>
       </c>
       <c r="G18">
-        <v>84.35709995178516</v>
+        <v>1.963924575206559</v>
       </c>
       <c r="H18">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>10.76090262898317</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>21.53576524956955</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>28.74233955610224</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>12.17440762381244</v>
+        <v>18.46441072217826</v>
       </c>
       <c r="E19">
-        <v>21.03257149249615</v>
+        <v>22.90159112018563</v>
       </c>
       <c r="F19">
-        <v>105.512849487222</v>
+        <v>76.33842165733434</v>
       </c>
       <c r="G19">
-        <v>84.35709995178516</v>
+        <v>1.966687842647199</v>
       </c>
       <c r="H19">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>10.71944360241438</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>21.41715106819866</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>29.40748232682341</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>12.17440762381244</v>
+        <v>18.96231612719167</v>
       </c>
       <c r="E20">
-        <v>21.03257149249615</v>
+        <v>23.46834958941837</v>
       </c>
       <c r="F20">
-        <v>105.512849487222</v>
+        <v>78.00019675069547</v>
       </c>
       <c r="G20">
-        <v>84.35709995178516</v>
+        <v>1.954157125915954</v>
       </c>
       <c r="H20">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>10.90682409382463</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>21.9514211698049</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>31.65898506300439</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>12.17440762381244</v>
+        <v>20.67420993110924</v>
       </c>
       <c r="E21">
-        <v>21.03257149249615</v>
+        <v>25.41256917497616</v>
       </c>
       <c r="F21">
-        <v>105.512849487222</v>
+        <v>83.91640095136316</v>
       </c>
       <c r="G21">
-        <v>84.35709995178516</v>
+        <v>1.909921359089077</v>
       </c>
       <c r="H21">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>11.5559667601435</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>23.76683837324317</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>33.16143919325481</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>12.17440762381244</v>
+        <v>21.84369074236659</v>
       </c>
       <c r="E22">
-        <v>21.03257149249615</v>
+        <v>26.73736961730414</v>
       </c>
       <c r="F22">
-        <v>105.512849487222</v>
+        <v>88.16690595201932</v>
       </c>
       <c r="G22">
-        <v>84.35709995178516</v>
+        <v>1.878691428004214</v>
       </c>
       <c r="H22">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>12.00351644750925</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>24.98705007079051</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>32.35521603789736</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>12.17440762381244</v>
+        <v>21.2131307513708</v>
       </c>
       <c r="E23">
-        <v>21.03257149249615</v>
+        <v>26.02336622029802</v>
       </c>
       <c r="F23">
-        <v>105.512849487222</v>
+        <v>85.86966289046954</v>
       </c>
       <c r="G23">
-        <v>84.35709995178516</v>
+        <v>1.895630604298448</v>
       </c>
       <c r="H23">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>11.76180490550253</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>24.33121134542242</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>29.37092983469853</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>12.17440762381244</v>
+        <v>18.93486992003877</v>
       </c>
       <c r="E24">
-        <v>21.03257149249615</v>
+        <v>23.43712389511464</v>
       </c>
       <c r="F24">
-        <v>105.512849487222</v>
+        <v>77.90816501323263</v>
       </c>
       <c r="G24">
-        <v>84.35709995178516</v>
+        <v>1.954851824688064</v>
       </c>
       <c r="H24">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.29052355439459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>10.89647756755909</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>21.92204223890829</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>26.18236077404616</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>12.17440762381244</v>
+        <v>16.57316057042548</v>
       </c>
       <c r="E25">
-        <v>21.03257149249615</v>
+        <v>20.74291680923838</v>
       </c>
       <c r="F25">
-        <v>105.512849487222</v>
+        <v>70.1967906198291</v>
       </c>
       <c r="G25">
-        <v>84.35709995178516</v>
+        <v>2.012885835953701</v>
       </c>
       <c r="H25">
-        <v>83.82366310637443</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>21.29052355439459</v>
+        <v>10.01437491509945</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>19.36336232211166</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09099310661615</v>
+        <v>7.286650228151567</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.83379634311852</v>
+        <v>4.202226270074767</v>
       </c>
       <c r="E2">
-        <v>18.74885636233175</v>
+        <v>30.14208208470164</v>
       </c>
       <c r="F2">
-        <v>64.84208660163644</v>
+        <v>39.31292680331826</v>
       </c>
       <c r="G2">
-        <v>2.053394395966075</v>
+        <v>2.041360116997952</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.377141676519807</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.57585353173457</v>
       </c>
       <c r="L2">
-        <v>17.44211740332829</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.50410262767533</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.65807525775107</v>
+        <v>6.918760967378623</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.62964313459567</v>
+        <v>4.252398388968437</v>
       </c>
       <c r="E3">
-        <v>17.36338016939188</v>
+        <v>27.81823973727656</v>
       </c>
       <c r="F3">
-        <v>61.34228653687589</v>
+        <v>37.11840378505849</v>
       </c>
       <c r="G3">
-        <v>2.080314775607308</v>
+        <v>2.055613210975721</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.944003614216694</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.76108432006898</v>
       </c>
       <c r="L3">
-        <v>16.09499159402154</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.69024326656636</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.76832300532501</v>
+        <v>6.687240903256137</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.87195556351323</v>
+        <v>4.287918825704636</v>
       </c>
       <c r="E4">
-        <v>16.48957450028942</v>
+        <v>26.3410222871027</v>
       </c>
       <c r="F4">
-        <v>59.24299293314311</v>
+        <v>35.76571610183093</v>
       </c>
       <c r="G4">
-        <v>2.096779723675153</v>
+        <v>2.064460452896476</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.675566193849441</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.59872805923813</v>
       </c>
       <c r="L4">
-        <v>15.38705951212462</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.80951089340971</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.40312640910046</v>
+        <v>6.591588504693388</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.55788782008276</v>
+        <v>4.303446360506589</v>
       </c>
       <c r="E5">
-        <v>16.12693874179574</v>
+        <v>25.72555756857176</v>
       </c>
       <c r="F5">
-        <v>58.39860483311444</v>
+        <v>35.21328906973953</v>
       </c>
       <c r="G5">
-        <v>2.103496917398088</v>
+        <v>2.068096361809588</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.565352074132727</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.11252393855886</v>
       </c>
       <c r="L5">
-        <v>15.10872534025105</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.85931677589886</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.34232776367961</v>
+        <v>6.575630297191292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.50539882031185</v>
+        <v>4.306084785408693</v>
       </c>
       <c r="E6">
-        <v>16.06630869258831</v>
+        <v>25.62252344074355</v>
       </c>
       <c r="F6">
-        <v>58.25903413443881</v>
+        <v>35.12149375043101</v>
       </c>
       <c r="G6">
-        <v>2.104613377119589</v>
+        <v>2.068702124435513</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.54699666960278</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.03102095394208</v>
       </c>
       <c r="L6">
-        <v>15.06237987827864</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.86765844539917</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.76340845240467</v>
+        <v>6.685956026706538</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.86774223809489</v>
+        <v>4.288124133591639</v>
       </c>
       <c r="E7">
-        <v>16.48471127162862</v>
+        <v>26.33277753446918</v>
       </c>
       <c r="F7">
-        <v>59.23156175790475</v>
+        <v>35.75827042785396</v>
       </c>
       <c r="G7">
-        <v>2.096870254992199</v>
+        <v>2.064509356165468</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.674083361851672</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.59222224583877</v>
       </c>
       <c r="L7">
-        <v>15.3833143451496</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.81017777768051</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59885640820234</v>
+        <v>7.16103085188297</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.42194844691848</v>
+        <v>4.21846021426851</v>
       </c>
       <c r="E8">
-        <v>18.27544688855638</v>
+        <v>29.35074740327893</v>
       </c>
       <c r="F8">
-        <v>63.62405011665645</v>
+        <v>38.55735839917055</v>
       </c>
       <c r="G8">
-        <v>2.06270562715614</v>
+        <v>2.046258877389424</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.228173192700824</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23.95981706051348</v>
       </c>
       <c r="L8">
-        <v>16.98289300047885</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.56721923432188</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.2588797445962</v>
+        <v>8.044252175226383</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.36458158896098</v>
+        <v>4.126569710148305</v>
       </c>
       <c r="E9">
-        <v>21.64741670763786</v>
+        <v>34.91295190016462</v>
       </c>
       <c r="F9">
-        <v>72.73125091132694</v>
+        <v>44.01020602141597</v>
       </c>
       <c r="G9">
-        <v>1.993824519453493</v>
+        <v>2.01088599852345</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.30805155881773</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>28.24424947955038</v>
       </c>
       <c r="L9">
-        <v>20.22740945603864</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.13298832279082</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.17404256715995</v>
+        <v>8.742322401149821</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.54029800074758</v>
+        <v>4.099055685264639</v>
       </c>
       <c r="E10">
-        <v>24.1255050090581</v>
+        <v>38.85691280378766</v>
       </c>
       <c r="F10">
-        <v>79.9492316605841</v>
+        <v>48.07611951265285</v>
       </c>
       <c r="G10">
-        <v>1.939420706364296</v>
+        <v>1.984570712546786</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.1251676629179</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>31.21184409529879</v>
       </c>
       <c r="L10">
-        <v>22.56813119507132</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.84461103011748</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.51174396921751</v>
+        <v>9.068706129238857</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20.5608628782396</v>
+        <v>4.099001296820379</v>
       </c>
       <c r="E11">
-        <v>25.28403392042707</v>
+        <v>40.64218622716614</v>
       </c>
       <c r="F11">
-        <v>83.50690184966383</v>
+        <v>50.04679805727559</v>
       </c>
       <c r="G11">
-        <v>1.912904964266862</v>
+        <v>1.972359631901292</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.51276258293343</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>32.53367752714904</v>
       </c>
       <c r="L11">
-        <v>23.64769427224849</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.7216107335074</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.02313673742577</v>
+        <v>9.19018694325306</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.95546214424042</v>
+        <v>4.101181968186194</v>
       </c>
       <c r="E12">
-        <v>25.73140024422029</v>
+        <v>41.31938211977437</v>
       </c>
       <c r="F12">
-        <v>84.93451980257115</v>
+        <v>50.79434477164247</v>
       </c>
       <c r="G12">
-        <v>1.902484869161265</v>
+        <v>1.967682821427733</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.66330353560452</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>33.03134285988335</v>
       </c>
       <c r="L12">
-        <v>24.06181087699451</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.67638414678514</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.91271684257828</v>
+        <v>9.164116298258991</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.87003796094735</v>
+        <v>4.100606884635631</v>
       </c>
       <c r="E13">
-        <v>25.63457833759056</v>
+        <v>41.17343904363015</v>
       </c>
       <c r="F13">
-        <v>84.6249921494784</v>
+        <v>50.63325750859564</v>
       </c>
       <c r="G13">
-        <v>1.904748529527091</v>
+        <v>1.968692740361828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.63068241305761</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>32.92426850092291</v>
       </c>
       <c r="L13">
-        <v>23.97231995902575</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.68606114794426</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.55369604461449</v>
+        <v>9.078742225017587</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>20.59313625597021</v>
+        <v>4.099133905119082</v>
       </c>
       <c r="E14">
-        <v>25.32063444540594</v>
+        <v>40.69786027267607</v>
       </c>
       <c r="F14">
-        <v>83.62345000242399</v>
+        <v>50.1082618484502</v>
       </c>
       <c r="G14">
-        <v>1.912056223822041</v>
+        <v>1.971976045146212</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.5250609955772</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>32.57467091559148</v>
       </c>
       <c r="L14">
-        <v>23.68163383260462</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.71786167866162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.3345346362555</v>
+        <v>9.026175782092812</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>20.42472458593849</v>
+        <v>4.098532071373145</v>
       </c>
       <c r="E15">
-        <v>25.12961940100056</v>
+        <v>40.40678733860192</v>
       </c>
       <c r="F15">
-        <v>83.01570401517877</v>
+        <v>49.78691355308998</v>
       </c>
       <c r="G15">
-        <v>1.916478319939114</v>
+        <v>1.973979679942295</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.46091197731606</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.36019583565178</v>
       </c>
       <c r="L15">
-        <v>23.50439141089997</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.73752229979831</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.08709291399442</v>
+        <v>8.720691512377392</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.47450184530631</v>
+        <v>4.099342939236753</v>
       </c>
       <c r="E16">
-        <v>24.0507354165497</v>
+        <v>38.74025626080884</v>
       </c>
       <c r="F16">
-        <v>79.72633335094694</v>
+        <v>47.9474100403464</v>
       </c>
       <c r="G16">
-        <v>1.941108544195814</v>
+        <v>1.98536244338874</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.10026836252896</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31.12498631171019</v>
       </c>
       <c r="L16">
-        <v>22.49811755968095</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.85282795842278</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.32663581207329</v>
+        <v>8.529422608121557</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.90162426251973</v>
+        <v>4.103295752287293</v>
       </c>
       <c r="E17">
-        <v>23.39929767865241</v>
+        <v>37.71716622310733</v>
       </c>
       <c r="F17">
-        <v>77.79675222442869</v>
+        <v>46.85337794963078</v>
       </c>
       <c r="G17">
-        <v>1.955692696653755</v>
+        <v>1.992272233687225</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.88394749062823</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>30.36076513401084</v>
       </c>
       <c r="L17">
-        <v>21.88644418457107</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.92577085737959</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.89008052645944</v>
+        <v>8.417962014876396</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.57473086644727</v>
+        <v>4.106713030970848</v>
       </c>
       <c r="E18">
-        <v>23.02722019786496</v>
+        <v>37.12770291127345</v>
       </c>
       <c r="F18">
-        <v>76.70516969782732</v>
+        <v>46.25211362231749</v>
       </c>
       <c r="G18">
-        <v>1.963924575206559</v>
+        <v>1.996225265864095</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.76090262898317</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>29.91847379852593</v>
       </c>
       <c r="L18">
-        <v>21.53576524956955</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.96848330395984</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.74233955610224</v>
+        <v>8.379972236907046</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.46441072217826</v>
+        <v>4.108055466241294</v>
       </c>
       <c r="E19">
-        <v>22.90159112018563</v>
+        <v>36.92788321947543</v>
       </c>
       <c r="F19">
-        <v>76.33842165733434</v>
+        <v>46.04868417722462</v>
       </c>
       <c r="G19">
-        <v>1.966687842647199</v>
+        <v>1.997560524447066</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.71944360241438</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>29.76822115210298</v>
       </c>
       <c r="L19">
-        <v>21.41715106819866</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.98307051880637</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.40748232682341</v>
+        <v>8.549932751017737</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.96231612719167</v>
+        <v>4.10275391973008</v>
       </c>
       <c r="E20">
-        <v>23.46834958941837</v>
+        <v>37.82616470185132</v>
       </c>
       <c r="F20">
-        <v>78.00019675069547</v>
+        <v>46.96473763748916</v>
       </c>
       <c r="G20">
-        <v>1.954157125915954</v>
+        <v>1.991538997207966</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.90682409382463</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>30.44239290053559</v>
       </c>
       <c r="L20">
-        <v>21.9514211698049</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.91792642874666</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.65898506300439</v>
+        <v>9.103875237957423</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>20.67420993110924</v>
+        <v>4.099503083048808</v>
       </c>
       <c r="E21">
-        <v>25.41256917497616</v>
+        <v>40.83749550063958</v>
       </c>
       <c r="F21">
-        <v>83.91640095136316</v>
+        <v>50.26241482282779</v>
       </c>
       <c r="G21">
-        <v>1.909921359089077</v>
+        <v>1.971013257678806</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.5559667601435</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>32.67742384164761</v>
       </c>
       <c r="L21">
-        <v>23.76683837324317</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.70848281129438</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.16143919325481</v>
+        <v>9.453642150009115</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.84369074236659</v>
+        <v>4.110472136094515</v>
       </c>
       <c r="E22">
-        <v>26.73736961730414</v>
+        <v>42.81392441916327</v>
       </c>
       <c r="F22">
-        <v>88.16690595201932</v>
+        <v>52.44290379596595</v>
       </c>
       <c r="G22">
-        <v>1.878691428004214</v>
+        <v>1.957279106913565</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.00351644750925</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.12209174353458</v>
       </c>
       <c r="L22">
-        <v>24.98705007079051</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.57959036092937</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.35521603789736</v>
+        <v>9.268053730326063</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>21.2131307513708</v>
+        <v>4.103258552106244</v>
       </c>
       <c r="E23">
-        <v>26.02336622029802</v>
+        <v>41.75732164582768</v>
       </c>
       <c r="F23">
-        <v>85.86966289046954</v>
+        <v>51.27764333013529</v>
       </c>
       <c r="G23">
-        <v>1.895630604298448</v>
+        <v>1.964645769689989</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.76180490550253</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>33.35205322838019</v>
       </c>
       <c r="L23">
-        <v>24.33121134542242</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.64758129606888</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.37092983469853</v>
+        <v>8.540664786467023</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.93486992003877</v>
+        <v>4.102995346212019</v>
       </c>
       <c r="E24">
-        <v>23.43712389511464</v>
+        <v>37.77689063566009</v>
       </c>
       <c r="F24">
-        <v>77.90816501323263</v>
+        <v>46.91438949920813</v>
       </c>
       <c r="G24">
-        <v>1.954851824688064</v>
+        <v>1.991870552840482</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.89647756755909</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>30.40549819875544</v>
       </c>
       <c r="L24">
-        <v>21.92204223890829</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.92147048850439</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18236077404616</v>
+        <v>7.810924289692253</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.57316057042548</v>
+        <v>4.145485007148582</v>
       </c>
       <c r="E25">
-        <v>20.74291680923838</v>
+        <v>33.43952992452566</v>
       </c>
       <c r="F25">
-        <v>70.1967906198291</v>
+        <v>42.53725183323371</v>
       </c>
       <c r="G25">
-        <v>2.012885835953701</v>
+        <v>2.020464230375055</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.01437491509945</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>27.12000582879092</v>
       </c>
       <c r="L25">
-        <v>19.36336232211166</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.24550380563985</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.286650228151567</v>
+        <v>7.805142343733317</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.202226270074767</v>
+        <v>6.31665926788368</v>
       </c>
       <c r="E2">
-        <v>30.14208208470164</v>
+        <v>16.35382138172144</v>
       </c>
       <c r="F2">
-        <v>39.31292680331826</v>
+        <v>36.05238240123538</v>
       </c>
       <c r="G2">
-        <v>2.041360116997952</v>
+        <v>3.660618554858681</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.57585353173457</v>
+        <v>16.48867995424968</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.50410262767533</v>
+        <v>19.81168637808847</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.918760967378623</v>
+        <v>7.734595247841789</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.252398388968437</v>
+        <v>6.337819254527891</v>
       </c>
       <c r="E3">
-        <v>27.81823973727656</v>
+        <v>15.42957719045927</v>
       </c>
       <c r="F3">
-        <v>37.11840378505849</v>
+        <v>35.59185804786794</v>
       </c>
       <c r="G3">
-        <v>2.055613210975721</v>
+        <v>3.665194562076497</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.76108432006898</v>
+        <v>15.9711343104385</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.69024326656636</v>
+        <v>19.86211620128597</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.687240903256137</v>
+        <v>7.692877315427562</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.287918825704636</v>
+        <v>6.351854287584858</v>
       </c>
       <c r="E4">
-        <v>26.3410222871027</v>
+        <v>14.83910729246217</v>
       </c>
       <c r="F4">
-        <v>35.76571610183093</v>
+        <v>35.3182212984111</v>
       </c>
       <c r="G4">
-        <v>2.064460452896476</v>
+        <v>3.668142403746693</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>21.59872805923813</v>
+        <v>15.65076542929826</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.80951089340971</v>
+        <v>19.89500083856163</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.591588504693388</v>
+        <v>7.676296997732809</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.303446360506589</v>
+        <v>6.357834381788795</v>
       </c>
       <c r="E5">
-        <v>25.72555756857176</v>
+        <v>14.59298196726907</v>
       </c>
       <c r="F5">
-        <v>35.21328906973953</v>
+        <v>35.20912487836423</v>
       </c>
       <c r="G5">
-        <v>2.068096361809588</v>
+        <v>3.669378578032615</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.11252393855886</v>
+        <v>15.51978843109278</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.85931677589886</v>
+        <v>19.90888395235965</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.575630297191292</v>
+        <v>7.673569735895787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.306084785408693</v>
+        <v>6.358843074774499</v>
       </c>
       <c r="E6">
-        <v>25.62252344074355</v>
+        <v>14.55178968477319</v>
       </c>
       <c r="F6">
-        <v>35.12149375043101</v>
+        <v>35.19115854513333</v>
       </c>
       <c r="G6">
-        <v>2.068702124435513</v>
+        <v>3.669585956819262</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.03102095394208</v>
+        <v>15.4980211179643</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.86765844539917</v>
+        <v>19.91121834974602</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.685956026706538</v>
+        <v>7.692651983142277</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.288124133591639</v>
+        <v>6.351933883581694</v>
       </c>
       <c r="E7">
-        <v>26.33277753446918</v>
+        <v>14.83580984431916</v>
       </c>
       <c r="F7">
-        <v>35.75827042785396</v>
+        <v>35.31674006564246</v>
       </c>
       <c r="G7">
-        <v>2.064509356165468</v>
+        <v>3.668158933677465</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>21.59222224583877</v>
+        <v>15.64900043331175</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.81017777768051</v>
+        <v>19.89518611875938</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.16103085188297</v>
+        <v>7.780497128041432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.21846021426851</v>
+        <v>6.323737904895206</v>
       </c>
       <c r="E8">
-        <v>29.35074740327893</v>
+        <v>16.04006048101398</v>
       </c>
       <c r="F8">
-        <v>38.55735839917055</v>
+        <v>35.89177168751594</v>
       </c>
       <c r="G8">
-        <v>2.046258877389424</v>
+        <v>3.662167787640302</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.95981706051348</v>
+        <v>16.31090111012266</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.56721923432188</v>
+        <v>19.8286756264874</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.044252175226383</v>
+        <v>7.964608397873418</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.126569710148305</v>
+        <v>6.276787924866975</v>
       </c>
       <c r="E9">
-        <v>34.91295190016462</v>
+        <v>18.25237702746207</v>
       </c>
       <c r="F9">
-        <v>44.01020602141597</v>
+        <v>37.0863905304528</v>
       </c>
       <c r="G9">
-        <v>2.01088599852345</v>
+        <v>3.651507824465597</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>28.24424947955038</v>
+        <v>17.57902002748707</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.13298832279082</v>
+        <v>19.71351308494455</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.742322401149821</v>
+        <v>8.105938624933682</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.099055685264639</v>
+        <v>6.247476662488154</v>
       </c>
       <c r="E10">
-        <v>38.85691280378766</v>
+        <v>19.89630835299693</v>
       </c>
       <c r="F10">
-        <v>48.07611951265285</v>
+        <v>37.99735719480683</v>
       </c>
       <c r="G10">
-        <v>1.984570712546786</v>
+        <v>3.644329032281586</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>31.21184409529879</v>
+        <v>18.48118027224943</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.84461103011748</v>
+        <v>19.63824460439897</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.068706129238857</v>
+        <v>8.171295309601078</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.099001296820379</v>
+        <v>6.235289585132072</v>
       </c>
       <c r="E11">
-        <v>40.64218622716614</v>
+        <v>20.60323771848714</v>
       </c>
       <c r="F11">
-        <v>50.04679805727559</v>
+        <v>38.41735407425632</v>
       </c>
       <c r="G11">
-        <v>1.972359631901292</v>
+        <v>3.641202741195801</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32.53367752714904</v>
+        <v>18.88312045810357</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.7216107335074</v>
+        <v>19.60603993653978</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.19018694325306</v>
+        <v>8.196175663739321</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.101181968186194</v>
+        <v>6.230841469748504</v>
       </c>
       <c r="E12">
-        <v>41.31938211977437</v>
+        <v>20.8650934224524</v>
       </c>
       <c r="F12">
-        <v>50.79434477164247</v>
+        <v>38.57706132556309</v>
       </c>
       <c r="G12">
-        <v>1.967682821427733</v>
+        <v>3.640038759955966</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.03134285988335</v>
+        <v>19.03395879633925</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.67638414678514</v>
+        <v>19.59413839785163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.164116298258991</v>
+        <v>8.19081174847636</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.100606884635631</v>
+        <v>6.231791997636462</v>
       </c>
       <c r="E13">
-        <v>41.17343904363015</v>
+        <v>20.8089573694548</v>
       </c>
       <c r="F13">
-        <v>50.63325750859564</v>
+        <v>38.54263822809935</v>
       </c>
       <c r="G13">
-        <v>1.968692740361828</v>
+        <v>3.640288562722607</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>32.92426850092291</v>
+        <v>19.00153613463999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.68606114794426</v>
+        <v>19.5966885297767</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078742225017587</v>
+        <v>8.173339727560677</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.099133905119082</v>
+        <v>6.234920280301628</v>
       </c>
       <c r="E14">
-        <v>40.69786027267607</v>
+        <v>20.62489762776404</v>
       </c>
       <c r="F14">
-        <v>50.1082618484502</v>
+        <v>38.43048078952397</v>
       </c>
       <c r="G14">
-        <v>1.971976045146212</v>
+        <v>3.641106582334376</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>32.57467091559148</v>
+        <v>18.89555824127583</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.71786167866162</v>
+        <v>19.60505489837225</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.026175782092812</v>
+        <v>8.16265404489536</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.098532071373145</v>
+        <v>6.236858233948134</v>
       </c>
       <c r="E15">
-        <v>40.40678733860192</v>
+        <v>20.51139592484072</v>
       </c>
       <c r="F15">
-        <v>49.78691355308998</v>
+        <v>38.36186337513907</v>
       </c>
       <c r="G15">
-        <v>1.973979679942295</v>
+        <v>3.641610226677213</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>32.36019583565178</v>
+        <v>18.83046138099199</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.73752229979831</v>
+        <v>19.61021781539949</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.720691512377392</v>
+        <v>8.101686965581935</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.099342939236753</v>
+        <v>6.248296358917672</v>
       </c>
       <c r="E16">
-        <v>38.74025626080884</v>
+        <v>19.84928909168439</v>
       </c>
       <c r="F16">
-        <v>47.9474100403464</v>
+        <v>37.97000990799291</v>
       </c>
       <c r="G16">
-        <v>1.98536244338874</v>
+        <v>3.644536133296092</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.12498631171019</v>
+        <v>18.45472903696972</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.85282795842278</v>
+        <v>19.64039029504325</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.529422608121557</v>
+        <v>8.064542783282793</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.103295752287293</v>
+        <v>6.25560836962906</v>
       </c>
       <c r="E17">
-        <v>37.71716622310733</v>
+        <v>19.43265928316738</v>
       </c>
       <c r="F17">
-        <v>46.85337794963078</v>
+        <v>37.73095267456655</v>
       </c>
       <c r="G17">
-        <v>1.992272233687225</v>
+        <v>3.646366662925568</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>30.36076513401084</v>
+        <v>18.22195042842245</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.92577085737959</v>
+        <v>19.65942212357049</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.417962014876396</v>
+        <v>8.043279979764334</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.106713030970848</v>
+        <v>6.259921862543867</v>
       </c>
       <c r="E18">
-        <v>37.12770291127345</v>
+        <v>19.1891725196347</v>
       </c>
       <c r="F18">
-        <v>46.25211362231749</v>
+        <v>37.59398816918288</v>
       </c>
       <c r="G18">
-        <v>1.996225265864095</v>
+        <v>3.64743266391704</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.91847379852593</v>
+        <v>18.08727433993865</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.96848330395984</v>
+        <v>19.6705602419125</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.379972236907046</v>
+        <v>8.036098868334573</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.108055466241294</v>
+        <v>6.261400796035262</v>
       </c>
       <c r="E19">
-        <v>36.92788321947543</v>
+        <v>19.10606926505558</v>
       </c>
       <c r="F19">
-        <v>46.04868417722462</v>
+        <v>37.54771051536291</v>
       </c>
       <c r="G19">
-        <v>1.997560524447066</v>
+        <v>3.64779585342994</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.76822115210298</v>
+        <v>18.04154487315979</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.98307051880637</v>
+        <v>19.67436428061513</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.549932751017737</v>
+        <v>8.068486493878371</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.10275391973008</v>
+        <v>6.25481882085319</v>
       </c>
       <c r="E20">
-        <v>37.82616470185132</v>
+        <v>19.47740865672518</v>
       </c>
       <c r="F20">
-        <v>46.96473763748916</v>
+        <v>37.75634638928756</v>
       </c>
       <c r="G20">
-        <v>1.991538997207966</v>
+        <v>3.646170442337988</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>30.44239290053559</v>
+        <v>18.24681281124231</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.91792642874666</v>
+        <v>19.65737632495387</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.103875237957423</v>
+        <v>8.178468297784235</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.099503083048808</v>
+        <v>6.233996883201201</v>
       </c>
       <c r="E21">
-        <v>40.83749550063958</v>
+        <v>20.67911870755498</v>
       </c>
       <c r="F21">
-        <v>50.26241482282779</v>
+        <v>38.46340725536636</v>
       </c>
       <c r="G21">
-        <v>1.971013257678806</v>
+        <v>3.6408657719968</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>32.67742384164761</v>
+        <v>18.926724765462</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.70848281129438</v>
+        <v>19.60258951485256</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.453642150009115</v>
+        <v>8.251102328675323</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.110472136094515</v>
+        <v>6.221362121310024</v>
       </c>
       <c r="E22">
-        <v>42.81392441916327</v>
+        <v>21.43046552539449</v>
       </c>
       <c r="F22">
-        <v>52.44290379596595</v>
+        <v>38.9293158663849</v>
       </c>
       <c r="G22">
-        <v>1.957279106913565</v>
+        <v>3.637514646711323</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.12209174353458</v>
+        <v>19.36305534339105</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.57959036092937</v>
+        <v>19.56849539460517</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.268053730326063</v>
+        <v>8.212274376025592</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.103258552106244</v>
+        <v>6.228015784857124</v>
       </c>
       <c r="E23">
-        <v>41.75732164582768</v>
+        <v>21.03255949208876</v>
       </c>
       <c r="F23">
-        <v>51.27764333013529</v>
+        <v>38.68034979881199</v>
       </c>
       <c r="G23">
-        <v>1.964645769689989</v>
+        <v>3.639292665791555</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.35205322838019</v>
+        <v>19.13095836584036</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.64758129606888</v>
+        <v>19.58653505968358</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.540664786467023</v>
+        <v>8.066703254464299</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.102995346212019</v>
+        <v>6.255175434247369</v>
       </c>
       <c r="E24">
-        <v>37.77689063566009</v>
+        <v>19.45718980468327</v>
       </c>
       <c r="F24">
-        <v>46.91438949920813</v>
+        <v>37.74486440786814</v>
       </c>
       <c r="G24">
-        <v>1.991870552840482</v>
+        <v>3.646259111276472</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>30.40549819875544</v>
+        <v>18.23557515938923</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.92147048850439</v>
+        <v>19.65830061863337</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.810924289692253</v>
+        <v>7.913650899888146</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.145485007148582</v>
+        <v>6.288586199824935</v>
       </c>
       <c r="E25">
-        <v>33.43952992452566</v>
+        <v>17.64443254072353</v>
       </c>
       <c r="F25">
-        <v>42.53725183323371</v>
+        <v>36.7568122842541</v>
       </c>
       <c r="G25">
-        <v>2.020464230375055</v>
+        <v>3.654276172432507</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.12000582879092</v>
+        <v>17.24038970069342</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.24550380563985</v>
+        <v>19.74302990214388</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.805142343733317</v>
+        <v>7.286650228151554</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.31665926788368</v>
+        <v>4.202226270074805</v>
       </c>
       <c r="E2">
-        <v>16.35382138172144</v>
+        <v>30.14208208470161</v>
       </c>
       <c r="F2">
-        <v>36.05238240123538</v>
+        <v>39.31292680331829</v>
       </c>
       <c r="G2">
-        <v>3.660618554858681</v>
+        <v>2.04136011699809</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.48867995424968</v>
+        <v>24.57585353173452</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.81168637808847</v>
+        <v>13.50410262767537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.734595247841789</v>
+        <v>6.918760967378625</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.337819254527891</v>
+        <v>4.252398388968446</v>
       </c>
       <c r="E3">
-        <v>15.42957719045927</v>
+        <v>27.81823973727659</v>
       </c>
       <c r="F3">
-        <v>35.59185804786794</v>
+        <v>37.11840378505848</v>
       </c>
       <c r="G3">
-        <v>3.665194562076497</v>
+        <v>2.055613210975723</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.9711343104385</v>
+        <v>22.76108432006897</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.86211620128597</v>
+        <v>13.69024326656627</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.692877315427562</v>
+        <v>6.687240903256142</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.351854287584858</v>
+        <v>4.287918825704846</v>
       </c>
       <c r="E4">
-        <v>14.83910729246217</v>
+        <v>26.34102228710255</v>
       </c>
       <c r="F4">
-        <v>35.3182212984111</v>
+        <v>35.7657161018309</v>
       </c>
       <c r="G4">
-        <v>3.668142403746693</v>
+        <v>2.06446045289634</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.65076542929826</v>
+        <v>21.59872805923797</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.89500083856163</v>
+        <v>13.80951089340976</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.676296997732809</v>
+        <v>6.591588504693342</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.357834381788795</v>
+        <v>4.303446360506704</v>
       </c>
       <c r="E5">
-        <v>14.59298196726907</v>
+        <v>25.72555756857177</v>
       </c>
       <c r="F5">
-        <v>35.20912487836423</v>
+        <v>35.21328906973943</v>
       </c>
       <c r="G5">
-        <v>3.669378578032615</v>
+        <v>2.068096361809721</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.51978843109278</v>
+        <v>21.11252393855893</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.90888395235965</v>
+        <v>13.8593167758988</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.673569735895787</v>
+        <v>6.575630297191302</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.358843074774499</v>
+        <v>4.306084785408684</v>
       </c>
       <c r="E6">
-        <v>14.55178968477319</v>
+        <v>25.6225234407436</v>
       </c>
       <c r="F6">
-        <v>35.19115854513333</v>
+        <v>35.12149375043106</v>
       </c>
       <c r="G6">
-        <v>3.669585956819262</v>
+        <v>2.068702124435378</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.4980211179643</v>
+        <v>21.03102095394199</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.91121834974602</v>
+        <v>13.86765844539922</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.692651983142277</v>
+        <v>6.685956026706548</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.351933883581694</v>
+        <v>4.288124133591619</v>
       </c>
       <c r="E7">
-        <v>14.83580984431916</v>
+        <v>26.33277753446916</v>
       </c>
       <c r="F7">
-        <v>35.31674006564246</v>
+        <v>35.75827042785401</v>
       </c>
       <c r="G7">
-        <v>3.668158933677465</v>
+        <v>2.064509356165337</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.64900043331175</v>
+        <v>21.59222224583873</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.89518611875938</v>
+        <v>13.81017777768051</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.780497128041432</v>
+        <v>7.161030851882975</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.323737904895206</v>
+        <v>4.218460214268679</v>
       </c>
       <c r="E8">
-        <v>16.04006048101398</v>
+        <v>29.35074740327896</v>
       </c>
       <c r="F8">
-        <v>35.89177168751594</v>
+        <v>38.55735839917059</v>
       </c>
       <c r="G8">
-        <v>3.662167787640302</v>
+        <v>2.046258877389293</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.31090111012266</v>
+        <v>23.95981706051342</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.8286756264874</v>
+        <v>13.56721923432188</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.964608397873418</v>
+        <v>8.044252175226404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.276787924866975</v>
+        <v>4.126569710148324</v>
       </c>
       <c r="E9">
-        <v>18.25237702746207</v>
+        <v>34.91295190016469</v>
       </c>
       <c r="F9">
-        <v>37.0863905304528</v>
+        <v>44.010206021416</v>
       </c>
       <c r="G9">
-        <v>3.651507824465597</v>
+        <v>2.010885998523448</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.57902002748707</v>
+        <v>28.24424947955049</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.71351308494455</v>
+        <v>13.13298832279074</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.105938624933682</v>
+        <v>8.74232240114989</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.247476662488154</v>
+        <v>4.099055685264681</v>
       </c>
       <c r="E10">
-        <v>19.89630835299693</v>
+        <v>38.85691280378762</v>
       </c>
       <c r="F10">
-        <v>37.99735719480683</v>
+        <v>48.07611951265276</v>
       </c>
       <c r="G10">
-        <v>3.644329032281586</v>
+        <v>1.984570712546518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.48118027224943</v>
+        <v>31.21184409529875</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.63824460439897</v>
+        <v>12.84461103011749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.171295309601078</v>
+        <v>9.068706129238866</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.235289585132072</v>
+        <v>4.099001296820362</v>
       </c>
       <c r="E11">
-        <v>20.60323771848714</v>
+        <v>40.64218622716607</v>
       </c>
       <c r="F11">
-        <v>38.41735407425632</v>
+        <v>50.04679805727551</v>
       </c>
       <c r="G11">
-        <v>3.641202741195801</v>
+        <v>1.97235963190143</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.88312045810357</v>
+        <v>32.53367752714908</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.60603993653978</v>
+        <v>12.72161073350738</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.196175663739321</v>
+        <v>9.190186943253057</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.230841469748504</v>
+        <v>4.10118196818624</v>
       </c>
       <c r="E12">
-        <v>20.8650934224524</v>
+        <v>41.31938211977438</v>
       </c>
       <c r="F12">
-        <v>38.57706132556309</v>
+        <v>50.79434477164261</v>
       </c>
       <c r="G12">
-        <v>3.640038759955966</v>
+        <v>1.967682821427604</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.03395879633925</v>
+        <v>33.03134285988342</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.59413839785163</v>
+        <v>12.67638414678505</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.19081174847636</v>
+        <v>9.164116298258982</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.231791997636462</v>
+        <v>4.100606884635618</v>
       </c>
       <c r="E13">
-        <v>20.8089573694548</v>
+        <v>41.17343904363025</v>
       </c>
       <c r="F13">
-        <v>38.54263822809935</v>
+        <v>50.63325750859565</v>
       </c>
       <c r="G13">
-        <v>3.640288562722607</v>
+        <v>1.968692740361832</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.00153613463999</v>
+        <v>32.92426850092286</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.5966885297767</v>
+        <v>12.68606114794425</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.173339727560677</v>
+        <v>9.078742225017553</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.234920280301628</v>
+        <v>4.099133905119149</v>
       </c>
       <c r="E14">
-        <v>20.62489762776404</v>
+        <v>40.69786027267597</v>
       </c>
       <c r="F14">
-        <v>38.43048078952397</v>
+        <v>50.10826184845018</v>
       </c>
       <c r="G14">
-        <v>3.641106582334376</v>
+        <v>1.971976045146336</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.89555824127583</v>
+        <v>32.57467091559143</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.60505489837225</v>
+        <v>12.71786167866158</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.16265404489536</v>
+        <v>9.026175782092864</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.236858233948134</v>
+        <v>4.098532071373239</v>
       </c>
       <c r="E15">
-        <v>20.51139592484072</v>
+        <v>40.40678733860207</v>
       </c>
       <c r="F15">
-        <v>38.36186337513907</v>
+        <v>49.78691355309014</v>
       </c>
       <c r="G15">
-        <v>3.641610226677213</v>
+        <v>1.973979679942157</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.83046138099199</v>
+        <v>32.36019583565187</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.61021781539949</v>
+        <v>12.73752229979825</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.101686965581935</v>
+        <v>8.720691512377389</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.248296358917672</v>
+        <v>4.099342939236816</v>
       </c>
       <c r="E16">
-        <v>19.84928909168439</v>
+        <v>38.74025626080881</v>
       </c>
       <c r="F16">
-        <v>37.97000990799291</v>
+        <v>47.94741004034652</v>
       </c>
       <c r="G16">
-        <v>3.644536133296092</v>
+        <v>1.98536244338861</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.45472903696972</v>
+        <v>31.12498631171026</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.64039029504325</v>
+        <v>12.85282795842274</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.064542783282793</v>
+        <v>8.529422608121596</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.25560836962906</v>
+        <v>4.103295752287286</v>
       </c>
       <c r="E17">
-        <v>19.43265928316738</v>
+        <v>37.71716622310735</v>
       </c>
       <c r="F17">
-        <v>37.73095267456655</v>
+        <v>46.85337794963083</v>
       </c>
       <c r="G17">
-        <v>3.646366662925568</v>
+        <v>1.992272233687095</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.22195042842245</v>
+        <v>30.36076513401089</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.65942212357049</v>
+        <v>12.92577085737954</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.043279979764334</v>
+        <v>8.417962014876359</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.259921862543867</v>
+        <v>4.106713030970775</v>
       </c>
       <c r="E18">
-        <v>19.1891725196347</v>
+        <v>37.12770291127345</v>
       </c>
       <c r="F18">
-        <v>37.59398816918288</v>
+        <v>46.2521136223175</v>
       </c>
       <c r="G18">
-        <v>3.64743266391704</v>
+        <v>1.996225265863963</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.08727433993865</v>
+        <v>29.91847379852595</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.6705602419125</v>
+        <v>12.96848330395987</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.036098868334573</v>
+        <v>8.379972236907033</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.261400796035262</v>
+        <v>4.108055466241294</v>
       </c>
       <c r="E19">
-        <v>19.10606926505558</v>
+        <v>36.92788321947545</v>
       </c>
       <c r="F19">
-        <v>37.54771051536291</v>
+        <v>46.04868417722458</v>
       </c>
       <c r="G19">
-        <v>3.64779585342994</v>
+        <v>1.997560524447064</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.04154487315979</v>
+        <v>29.76822115210291</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.67436428061513</v>
+        <v>12.98307051880635</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.068486493878371</v>
+        <v>8.549932751017707</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.25481882085319</v>
+        <v>4.102753919730118</v>
       </c>
       <c r="E20">
-        <v>19.47740865672518</v>
+        <v>37.82616470185145</v>
       </c>
       <c r="F20">
-        <v>37.75634638928756</v>
+        <v>46.96473763748918</v>
       </c>
       <c r="G20">
-        <v>3.646170442337988</v>
+        <v>1.991538997207831</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.24681281124231</v>
+        <v>30.44239290053554</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.65737632495387</v>
+        <v>12.91792642874664</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.178468297784235</v>
+        <v>9.103875237957403</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.233996883201201</v>
+        <v>4.099503083048743</v>
       </c>
       <c r="E21">
-        <v>20.67911870755498</v>
+        <v>40.8374955006397</v>
       </c>
       <c r="F21">
-        <v>38.46340725536636</v>
+        <v>50.26241482282791</v>
       </c>
       <c r="G21">
-        <v>3.6408657719968</v>
+        <v>1.971013257678944</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.926724765462</v>
+        <v>32.67742384164777</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.60258951485256</v>
+        <v>12.70848281129431</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.251102328675323</v>
+        <v>9.453642150009097</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.221362121310024</v>
+        <v>4.110472136094477</v>
       </c>
       <c r="E22">
-        <v>21.43046552539449</v>
+        <v>42.81392441916316</v>
       </c>
       <c r="F22">
-        <v>38.9293158663849</v>
+        <v>52.44290379596585</v>
       </c>
       <c r="G22">
-        <v>3.637514646711323</v>
+        <v>1.957279106913833</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.36305534339105</v>
+        <v>34.12209174353455</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.56849539460517</v>
+        <v>12.57959036092942</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.212274376025592</v>
+        <v>9.268053730326031</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.228015784857124</v>
+        <v>4.103258552106285</v>
       </c>
       <c r="E23">
-        <v>21.03255949208876</v>
+        <v>41.75732164582765</v>
       </c>
       <c r="F23">
-        <v>38.68034979881199</v>
+        <v>51.2776433301354</v>
       </c>
       <c r="G23">
-        <v>3.639292665791555</v>
+        <v>1.964645769689995</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.13095836584036</v>
+        <v>33.35205322838029</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.58653505968358</v>
+        <v>12.64758129606889</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.066703254464299</v>
+        <v>8.540664786467026</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.255175434247369</v>
+        <v>4.102995346212006</v>
       </c>
       <c r="E24">
-        <v>19.45718980468327</v>
+        <v>37.77689063566014</v>
       </c>
       <c r="F24">
-        <v>37.74486440786814</v>
+        <v>46.91438949920811</v>
       </c>
       <c r="G24">
-        <v>3.646259111276472</v>
+        <v>1.991870552840484</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.23557515938923</v>
+        <v>30.40549819875545</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.65830061863337</v>
+        <v>12.92147048850435</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.913650899888146</v>
+        <v>7.810924289692276</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.288586199824935</v>
+        <v>4.145485007148666</v>
       </c>
       <c r="E25">
-        <v>17.64443254072353</v>
+        <v>33.43952992452566</v>
       </c>
       <c r="F25">
-        <v>36.7568122842541</v>
+        <v>42.53725183323373</v>
       </c>
       <c r="G25">
-        <v>3.654276172432507</v>
+        <v>2.020464230375051</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.24038970069342</v>
+        <v>27.12000582879096</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.74302990214388</v>
+        <v>13.24550380563983</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.286650228151554</v>
+        <v>24.10881476781597</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.202226270074805</v>
+        <v>8.101360097359276</v>
       </c>
       <c r="E2">
-        <v>30.14208208470161</v>
+        <v>15.60632114511994</v>
       </c>
       <c r="F2">
-        <v>39.31292680331829</v>
+        <v>26.92504199241463</v>
       </c>
       <c r="G2">
-        <v>2.04136011699809</v>
+        <v>41.67413193123798</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.798275702287309</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.932387387733224</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.13774468963703</v>
       </c>
       <c r="K2">
-        <v>24.57585353173452</v>
+        <v>14.88377994398097</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.742684365987841</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.50410262767537</v>
+        <v>16.76708380894155</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.918760967378625</v>
+        <v>22.57564513956386</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.252398388968446</v>
+        <v>7.738507954286498</v>
       </c>
       <c r="E3">
-        <v>27.81823973727659</v>
+        <v>14.84103190985538</v>
       </c>
       <c r="F3">
-        <v>37.11840378505848</v>
+        <v>26.04065906781611</v>
       </c>
       <c r="G3">
-        <v>2.055613210975723</v>
+        <v>39.44406849420191</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.124162686478696</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.117088005585442</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.81712284363259</v>
       </c>
       <c r="K3">
-        <v>22.76108432006897</v>
+        <v>15.28957547524397</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9.364353129225062</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.69024326656627</v>
+        <v>15.7245495443935</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.687240903256142</v>
+        <v>21.57916528627572</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.287918825704846</v>
+        <v>7.508883977470814</v>
       </c>
       <c r="E4">
-        <v>26.34102228710255</v>
+        <v>14.3543961950242</v>
       </c>
       <c r="F4">
-        <v>35.7657161018309</v>
+        <v>25.50485792433523</v>
       </c>
       <c r="G4">
-        <v>2.06446045289634</v>
+        <v>38.04772483587654</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.32955648281031</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.233719142792988</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.62530304626492</v>
       </c>
       <c r="K4">
-        <v>21.59872805923797</v>
+        <v>15.54649614827612</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.125473181223978</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.80951089340976</v>
+        <v>15.05334913266067</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.591588504693342</v>
+        <v>21.15930473045158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.303446360506704</v>
+        <v>7.41523378842449</v>
       </c>
       <c r="E5">
-        <v>25.72555756857177</v>
+        <v>14.15931597941081</v>
       </c>
       <c r="F5">
-        <v>35.21328906973943</v>
+        <v>25.27196525896556</v>
       </c>
       <c r="G5">
-        <v>2.068096361809721</v>
+        <v>37.44761777598675</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.414658542922238</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.284311542560289</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.54320845842013</v>
       </c>
       <c r="K5">
-        <v>21.11252393855893</v>
+        <v>15.6545228832845</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.030415974775389</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.8593167758988</v>
+        <v>14.78268221078702</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.575630297191302</v>
+        <v>21.08881785721436</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.306084785408684</v>
+        <v>7.401560497977008</v>
       </c>
       <c r="E6">
-        <v>25.6225234407436</v>
+        <v>14.13569937415978</v>
       </c>
       <c r="F6">
-        <v>35.12149375043106</v>
+        <v>25.21316662633484</v>
       </c>
       <c r="G6">
-        <v>2.068702124435378</v>
+        <v>37.31713067276137</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.428897600805082</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.295619431413283</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.5232528716793</v>
       </c>
       <c r="K6">
-        <v>21.03102095394199</v>
+        <v>15.67437396242639</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.019311522299994</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.86765844539922</v>
+        <v>14.75024431491135</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.685956026706548</v>
+        <v>21.5737167294141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.288124133591619</v>
+        <v>7.512968152265922</v>
       </c>
       <c r="E7">
-        <v>26.33277753446916</v>
+        <v>14.37605333450699</v>
       </c>
       <c r="F7">
-        <v>35.75827042785401</v>
+        <v>25.44705013487598</v>
       </c>
       <c r="G7">
-        <v>2.064509356165337</v>
+        <v>37.95804597320733</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.330737205356375</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.241932505111833</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.6068744458484</v>
       </c>
       <c r="K7">
-        <v>21.59222224583873</v>
+        <v>15.55317331003062</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.137118049593116</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.81017777768051</v>
+        <v>15.08430964586249</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.161030851882975</v>
+        <v>23.59174548773278</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.218460214268679</v>
+        <v>7.984452409708364</v>
       </c>
       <c r="E8">
-        <v>29.35074740327896</v>
+        <v>15.37643754394865</v>
       </c>
       <c r="F8">
-        <v>38.55735839917059</v>
+        <v>26.54954125647139</v>
       </c>
       <c r="G8">
-        <v>2.046258877389293</v>
+        <v>40.81057949638333</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.909513672713355</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.004916084850731</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.00409932389358</v>
       </c>
       <c r="K8">
-        <v>23.95981706051342</v>
+        <v>15.03086720394873</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.630174120259834</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.56721923432188</v>
+        <v>16.45630468390399</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.044252175226404</v>
+        <v>27.11204903963975</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.126569710148324</v>
+        <v>8.845310241735428</v>
       </c>
       <c r="E9">
-        <v>34.91295190016469</v>
+        <v>17.16310709614882</v>
       </c>
       <c r="F9">
-        <v>44.010206021416</v>
+        <v>28.85315116027438</v>
       </c>
       <c r="G9">
-        <v>2.010885998523448</v>
+        <v>46.30005227528267</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.987300872424493</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.55247075058655</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.85088404707129</v>
       </c>
       <c r="K9">
-        <v>28.24424947955049</v>
+        <v>14.05626286846083</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.52113361855579</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.13298832279074</v>
+        <v>18.84370294367593</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.74232240114989</v>
+        <v>29.43373358305443</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.099055685264681</v>
+        <v>9.476020164147377</v>
       </c>
       <c r="E10">
-        <v>38.85691280378762</v>
+        <v>18.52908415998453</v>
       </c>
       <c r="F10">
-        <v>48.07611951265276</v>
+        <v>30.28018759137593</v>
       </c>
       <c r="G10">
-        <v>1.984570712546518</v>
+        <v>49.767501252682</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.52234182924087</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.242875765274905</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13.40177433408834</v>
       </c>
       <c r="K10">
-        <v>31.21184409529875</v>
+        <v>13.4329051621557</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.22057197073728</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.84461103011749</v>
+        <v>20.41693719042832</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.068706129238866</v>
+        <v>30.43263936540205</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.099001296820362</v>
+        <v>10.01882497410595</v>
       </c>
       <c r="E11">
-        <v>40.64218622716607</v>
+        <v>20.2803609779433</v>
       </c>
       <c r="F11">
-        <v>50.04679805727551</v>
+        <v>28.58847948985368</v>
       </c>
       <c r="G11">
-        <v>1.97235963190143</v>
+        <v>48.05352164871812</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.360021474878068</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.156113438086409</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.89656737011905</v>
       </c>
       <c r="K11">
-        <v>32.53367752714908</v>
+        <v>13.83559466421185</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.2107422276781</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.72161073350738</v>
+        <v>20.63672427082729</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.190186943253057</v>
+        <v>30.80228358974134</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.10118196818624</v>
+        <v>10.34867173052383</v>
       </c>
       <c r="E12">
-        <v>41.31938211977438</v>
+        <v>21.49441883335977</v>
       </c>
       <c r="F12">
-        <v>50.79434477164261</v>
+        <v>26.89282479184762</v>
       </c>
       <c r="G12">
-        <v>1.967682821427604</v>
+        <v>45.94907242131308</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.521156694498182</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.128960883741109</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.36267741237467</v>
       </c>
       <c r="K12">
-        <v>33.03134285988342</v>
+        <v>14.53235978491091</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.92389844296114</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.67638414678505</v>
+        <v>20.44870870917049</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.164116298258982</v>
+        <v>30.72289571902002</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.100606884635618</v>
+        <v>10.54745721387717</v>
       </c>
       <c r="E13">
-        <v>41.17343904363025</v>
+        <v>22.42364756683833</v>
       </c>
       <c r="F13">
-        <v>50.63325750859565</v>
+        <v>24.97000045378051</v>
       </c>
       <c r="G13">
-        <v>1.968692740361832</v>
+        <v>43.22748634378493</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.760729446874365</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.1594715883647</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.73647561567437</v>
       </c>
       <c r="K13">
-        <v>32.92426850092286</v>
+        <v>15.44247947047723</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.49298107157991</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.68606114794425</v>
+        <v>19.96868559230477</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078742225017553</v>
+        <v>30.46315159309047</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.099133905119149</v>
+        <v>10.63183327841478</v>
       </c>
       <c r="E14">
-        <v>40.69786027267597</v>
+        <v>22.96630970638011</v>
       </c>
       <c r="F14">
-        <v>50.10826184845018</v>
+        <v>23.48871071031022</v>
       </c>
       <c r="G14">
-        <v>1.971976045146336</v>
+        <v>40.98135154296752</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.660426861168206</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.209241155475858</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.24691989364093</v>
       </c>
       <c r="K14">
-        <v>32.57467091559143</v>
+        <v>16.18348041900511</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.83802986188234</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.71786167866158</v>
+        <v>19.50127768523271</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.026175782092864</v>
+        <v>30.3030383216054</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.098532071373239</v>
+        <v>10.62575584460129</v>
       </c>
       <c r="E15">
-        <v>40.40678733860207</v>
+        <v>23.04376944916125</v>
       </c>
       <c r="F15">
-        <v>49.78691355309014</v>
+        <v>23.06267854421454</v>
       </c>
       <c r="G15">
-        <v>1.973979679942157</v>
+        <v>40.26972779960091</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.862332380009012</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.238027768778467</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.10310099993782</v>
       </c>
       <c r="K15">
-        <v>32.36019583565187</v>
+        <v>16.39130533335746</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.89339748204142</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.73752229979825</v>
+        <v>19.33343862040784</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.720691512377389</v>
+        <v>29.36921597022546</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.099342939236816</v>
+        <v>10.33745493151274</v>
       </c>
       <c r="E16">
-        <v>38.74025626080881</v>
+        <v>22.36849110931119</v>
       </c>
       <c r="F16">
-        <v>47.94741004034652</v>
+        <v>22.69237746414242</v>
       </c>
       <c r="G16">
-        <v>1.98536244338861</v>
+        <v>39.05655100983256</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.55838774686706</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.370611787371177</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.94981786846226</v>
       </c>
       <c r="K16">
-        <v>31.12498631171026</v>
+        <v>16.3899875357267</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.52416408954048</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.85282795842274</v>
+        <v>18.74800681255417</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.529422608121596</v>
+        <v>28.78156140528825</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.103295752287286</v>
+        <v>10.06545202970866</v>
       </c>
       <c r="E17">
-        <v>37.71716622310735</v>
+        <v>21.53518304946795</v>
       </c>
       <c r="F17">
-        <v>46.85337794963083</v>
+        <v>23.22904007870054</v>
       </c>
       <c r="G17">
-        <v>1.992272233687095</v>
+        <v>39.38743375688144</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.792852528361717</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.446293402884466</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.10236729241572</v>
       </c>
       <c r="K17">
-        <v>30.36076513401089</v>
+        <v>15.99929605941282</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.04304469614781</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.92577085737954</v>
+        <v>18.55260869911395</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.417962014876359</v>
+        <v>28.43760595322129</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.106713030970775</v>
+        <v>9.777258464043401</v>
       </c>
       <c r="E18">
-        <v>37.12770291127345</v>
+        <v>20.47142096433857</v>
       </c>
       <c r="F18">
-        <v>46.2521136223175</v>
+        <v>24.62988924433509</v>
       </c>
       <c r="G18">
-        <v>1.996225265863963</v>
+        <v>41.13719108672954</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.578004686298725</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.470911350508266</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.54142375780929</v>
       </c>
       <c r="K18">
-        <v>29.91847379852595</v>
+        <v>15.27826261042319</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.41460972736284</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.96848330395987</v>
+        <v>18.66747983868638</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.379972236907033</v>
+        <v>28.31932187633322</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.108055466241294</v>
+        <v>9.51528351812965</v>
       </c>
       <c r="E19">
-        <v>36.92788321947545</v>
+        <v>19.38443905129827</v>
       </c>
       <c r="F19">
-        <v>46.04868417722458</v>
+        <v>26.5084203793452</v>
       </c>
       <c r="G19">
-        <v>1.997560524447064</v>
+        <v>43.73077821465808</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.245848659070083</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.465617386680023</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>12.14152365380324</v>
       </c>
       <c r="K19">
-        <v>29.76822115210291</v>
+        <v>14.54038234963636</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.76931000824364</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.98307051880635</v>
+        <v>19.05780630279096</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.549932751017707</v>
+        <v>28.84192759041805</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.102753919730118</v>
+        <v>9.328382427363051</v>
       </c>
       <c r="E20">
-        <v>37.82616470185145</v>
+        <v>18.24591192607841</v>
       </c>
       <c r="F20">
-        <v>46.96473763748918</v>
+        <v>29.74720091336708</v>
       </c>
       <c r="G20">
-        <v>1.991538997207831</v>
+        <v>48.65023854058016</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.382163761996968</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.349079216942589</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>13.20487361511531</v>
       </c>
       <c r="K20">
-        <v>30.44239290053554</v>
+        <v>13.63166126535791</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.07880845897454</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.91792642874664</v>
+        <v>20.08075742297919</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.103875237957403</v>
+        <v>30.54021931927668</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.099503083048743</v>
+        <v>9.753273130595245</v>
       </c>
       <c r="E21">
-        <v>40.8374955006397</v>
+        <v>19.0550654437547</v>
       </c>
       <c r="F21">
-        <v>50.26241482282791</v>
+        <v>31.29524835740215</v>
       </c>
       <c r="G21">
-        <v>1.971013257678944</v>
+        <v>51.88803972255906</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.802179607990988</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.10375940274863</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.77843827033582</v>
       </c>
       <c r="K21">
-        <v>32.67742384164777</v>
+        <v>13.08798822713485</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.48156912424152</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.70848281129431</v>
+        <v>21.34142556844298</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.453642150009097</v>
+        <v>31.60293647548366</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.110472136094477</v>
+        <v>10.03500528049081</v>
       </c>
       <c r="E22">
-        <v>42.81392441916316</v>
+        <v>19.61056030613556</v>
       </c>
       <c r="F22">
-        <v>52.44290379596585</v>
+        <v>32.22845657038673</v>
       </c>
       <c r="G22">
-        <v>1.957279106913833</v>
+        <v>53.85532446974769</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.068648974543755</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.937022741448085</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>14.13110431529743</v>
       </c>
       <c r="K22">
-        <v>34.12209174353455</v>
+        <v>12.74894892264632</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.762546134379</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.57959036092942</v>
+        <v>22.07459947983087</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.268053730326031</v>
+        <v>31.04005660701766</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.103258552106285</v>
+        <v>9.880004094095018</v>
       </c>
       <c r="E23">
-        <v>41.75732164582765</v>
+        <v>19.29277870673969</v>
       </c>
       <c r="F23">
-        <v>51.2776433301354</v>
+        <v>31.78162376036911</v>
       </c>
       <c r="G23">
-        <v>1.964645769689995</v>
+        <v>52.8779662243639</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.926296339997735</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.015523256635423</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.95935780965236</v>
       </c>
       <c r="K23">
-        <v>33.35205322838029</v>
+        <v>12.91421485416991</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.60018619136074</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.64758129606889</v>
+        <v>21.65754451021532</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.540664786467026</v>
+        <v>28.81325205913114</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.102995346212006</v>
+        <v>9.289712144922447</v>
       </c>
       <c r="E24">
-        <v>37.77689063566014</v>
+        <v>18.09431440580046</v>
       </c>
       <c r="F24">
-        <v>46.91438949920811</v>
+        <v>30.01684824748302</v>
       </c>
       <c r="G24">
-        <v>1.991870552840484</v>
+        <v>49.00956171465651</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.382943878859583</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.333641488354899</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13.29085825672457</v>
       </c>
       <c r="K24">
-        <v>30.40549819875545</v>
+        <v>13.58065165383322</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.99253209465745</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.92147048850435</v>
+        <v>20.06186380946555</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.810924289692276</v>
+        <v>26.20644168197738</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.145485007148666</v>
+        <v>8.62700318901674</v>
       </c>
       <c r="E25">
-        <v>33.43952992452566</v>
+        <v>16.73310663115323</v>
       </c>
       <c r="F25">
-        <v>42.53725183323373</v>
+        <v>28.1372583575036</v>
       </c>
       <c r="G25">
-        <v>2.020464230375051</v>
+        <v>44.71833114638514</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.783796413007706</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.686024787995413</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.58943376979303</v>
       </c>
       <c r="K25">
-        <v>27.12000582879096</v>
+        <v>14.32937483768365</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.30759984011219</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.24550380563983</v>
+        <v>18.27649345988588</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.10881476781597</v>
+        <v>24.07695142172469</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.101360097359276</v>
+        <v>7.853226096064055</v>
       </c>
       <c r="E2">
-        <v>15.60632114511994</v>
+        <v>15.04650949943875</v>
       </c>
       <c r="F2">
-        <v>26.92504199241463</v>
+        <v>27.48512794799711</v>
       </c>
       <c r="G2">
-        <v>41.67413193123798</v>
+        <v>42.11013682617485</v>
       </c>
       <c r="H2">
-        <v>1.798275702287309</v>
+        <v>1.699494140776945</v>
       </c>
       <c r="I2">
-        <v>3.932387387733224</v>
+        <v>3.671373254477876</v>
       </c>
       <c r="J2">
-        <v>12.13774468963703</v>
+        <v>12.88462297165481</v>
       </c>
       <c r="K2">
-        <v>14.88377994398097</v>
+        <v>14.25881948609565</v>
       </c>
       <c r="L2">
-        <v>9.742684365987841</v>
+        <v>10.96344955653156</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.02828678644285</v>
       </c>
       <c r="N2">
-        <v>16.76708380894155</v>
+        <v>9.423640763668649</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>16.53816440062725</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.57564513956386</v>
+        <v>22.52917716558563</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.738507954286498</v>
+        <v>7.499743261200761</v>
       </c>
       <c r="E3">
-        <v>14.84103190985538</v>
+        <v>14.27438323120979</v>
       </c>
       <c r="F3">
-        <v>26.04065906781611</v>
+        <v>26.59512467139564</v>
       </c>
       <c r="G3">
-        <v>39.44406849420191</v>
+        <v>39.88479204177814</v>
       </c>
       <c r="H3">
-        <v>2.124162686478696</v>
+        <v>2.001801592920525</v>
       </c>
       <c r="I3">
-        <v>4.117088005585442</v>
+        <v>3.829284430877672</v>
       </c>
       <c r="J3">
-        <v>11.81712284363259</v>
+        <v>12.53258258501539</v>
       </c>
       <c r="K3">
-        <v>15.28957547524397</v>
+        <v>14.61924769418791</v>
       </c>
       <c r="L3">
-        <v>9.364353129225062</v>
+        <v>11.13105146687419</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.44188688242837</v>
       </c>
       <c r="N3">
-        <v>15.7245495443935</v>
+        <v>9.03981282530971</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>15.48802248292595</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.57916528627572</v>
+        <v>21.52164835333149</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.508883977470814</v>
+        <v>7.276052142921197</v>
       </c>
       <c r="E4">
-        <v>14.3543961950242</v>
+        <v>13.78321961280801</v>
       </c>
       <c r="F4">
-        <v>25.50485792433523</v>
+        <v>26.05040834186461</v>
       </c>
       <c r="G4">
-        <v>38.04772483587654</v>
+        <v>38.4911551190556</v>
       </c>
       <c r="H4">
-        <v>2.32955648281031</v>
+        <v>2.192468444176929</v>
       </c>
       <c r="I4">
-        <v>4.233719142792988</v>
+        <v>3.929304785637107</v>
       </c>
       <c r="J4">
-        <v>11.62530304626492</v>
+        <v>12.31487073168423</v>
       </c>
       <c r="K4">
-        <v>15.54649614827612</v>
+        <v>14.84822874503215</v>
       </c>
       <c r="L4">
-        <v>9.125473181223978</v>
+        <v>11.25058440285799</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.7034178184278</v>
       </c>
       <c r="N4">
-        <v>15.05334913266067</v>
+        <v>8.797612332499916</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>14.81198205176197</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.15930473045158</v>
+        <v>21.09672914434439</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.41523378842449</v>
+        <v>7.184677952616552</v>
       </c>
       <c r="E5">
-        <v>14.15931597941081</v>
+        <v>13.58517027609903</v>
       </c>
       <c r="F5">
-        <v>25.27196525896556</v>
+        <v>25.81493292293172</v>
       </c>
       <c r="G5">
-        <v>37.44761777598675</v>
+        <v>37.89571372369991</v>
       </c>
       <c r="H5">
-        <v>2.414658542922238</v>
+        <v>2.271544858609604</v>
       </c>
       <c r="I5">
-        <v>4.284311542560289</v>
+        <v>3.97355812594741</v>
       </c>
       <c r="J5">
-        <v>11.54320845842013</v>
+        <v>12.22145238176702</v>
       </c>
       <c r="K5">
-        <v>15.6545228832845</v>
+        <v>14.94326378286656</v>
       </c>
       <c r="L5">
-        <v>9.030415974775389</v>
+        <v>11.3004060745804</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.8145252132726</v>
       </c>
       <c r="N5">
-        <v>14.78268221078702</v>
+        <v>8.700616460161381</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>14.53766201034459</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.08881785721436</v>
+        <v>21.0253622390418</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.401560497977008</v>
+        <v>7.171137125369604</v>
       </c>
       <c r="E6">
-        <v>14.13569937415978</v>
+        <v>13.55973724975788</v>
       </c>
       <c r="F6">
-        <v>25.21316662633484</v>
+        <v>25.75860904585229</v>
       </c>
       <c r="G6">
-        <v>37.31713067276137</v>
+        <v>37.77049642300592</v>
       </c>
       <c r="H6">
-        <v>2.428897600805082</v>
+        <v>2.284834931956639</v>
       </c>
       <c r="I6">
-        <v>4.295619431413283</v>
+        <v>3.98443343270893</v>
       </c>
       <c r="J6">
-        <v>11.5232528716793</v>
+        <v>12.20056852882452</v>
       </c>
       <c r="K6">
-        <v>15.67437396242639</v>
+        <v>14.95901489610632</v>
       </c>
       <c r="L6">
-        <v>9.019311522299994</v>
+        <v>11.30540151489945</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.83627801186416</v>
       </c>
       <c r="N6">
-        <v>14.75024431491135</v>
+        <v>8.688431632351479</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>14.50256987873249</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5737167294141</v>
+        <v>21.5161977759285</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.512968152265922</v>
+        <v>7.270541960700655</v>
       </c>
       <c r="E7">
-        <v>14.37605333450699</v>
+        <v>13.79044933969792</v>
       </c>
       <c r="F7">
-        <v>25.44705013487598</v>
+        <v>25.96695472968671</v>
       </c>
       <c r="G7">
-        <v>37.95804597320733</v>
+        <v>38.48097472118314</v>
       </c>
       <c r="H7">
-        <v>2.330737205356375</v>
+        <v>2.194881764487812</v>
       </c>
       <c r="I7">
-        <v>4.241932505111833</v>
+        <v>3.939546487147733</v>
       </c>
       <c r="J7">
-        <v>11.6068744458484</v>
+        <v>12.22816788905352</v>
       </c>
       <c r="K7">
-        <v>15.55317331003062</v>
+        <v>14.85031570164257</v>
       </c>
       <c r="L7">
-        <v>9.137118049593116</v>
+        <v>11.24134879173265</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.71573410022707</v>
       </c>
       <c r="N7">
-        <v>15.08430964586249</v>
+        <v>8.804005045794245</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>14.82994491179128</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59174548773278</v>
+        <v>23.55542527684265</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.984452409708364</v>
+        <v>7.710285058223477</v>
       </c>
       <c r="E8">
-        <v>15.37643754394865</v>
+        <v>14.77589263616713</v>
       </c>
       <c r="F8">
-        <v>26.54954125647139</v>
+        <v>27.011553703166</v>
       </c>
       <c r="G8">
-        <v>40.81057949638333</v>
+        <v>41.47327970141193</v>
       </c>
       <c r="H8">
-        <v>1.909513672713355</v>
+        <v>1.806519668705342</v>
       </c>
       <c r="I8">
-        <v>4.004916084850731</v>
+        <v>3.738306775707904</v>
       </c>
       <c r="J8">
-        <v>12.00409932389358</v>
+        <v>12.51702024678933</v>
       </c>
       <c r="K8">
-        <v>15.03086720394873</v>
+        <v>14.38800064021129</v>
       </c>
       <c r="L8">
-        <v>9.630174120259834</v>
+        <v>11.01056611017496</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.18652989282379</v>
       </c>
       <c r="N8">
-        <v>16.45630468390399</v>
+        <v>9.296579407485455</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>16.1950352944397</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.11204903963975</v>
+        <v>27.10139977229413</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.845310241735428</v>
+        <v>8.543737917337554</v>
       </c>
       <c r="E9">
-        <v>17.16310709614882</v>
+        <v>16.57489874011472</v>
       </c>
       <c r="F9">
-        <v>28.85315116027438</v>
+        <v>29.27017200406104</v>
       </c>
       <c r="G9">
-        <v>46.30005227528267</v>
+        <v>46.96766408447314</v>
       </c>
       <c r="H9">
-        <v>1.987300872424493</v>
+        <v>2.030858755544676</v>
       </c>
       <c r="I9">
-        <v>3.55247075058655</v>
+        <v>3.350619951485598</v>
       </c>
       <c r="J9">
-        <v>12.85088404707129</v>
+        <v>13.35403512360114</v>
       </c>
       <c r="K9">
-        <v>14.05626286846083</v>
+        <v>13.53663763526067</v>
       </c>
       <c r="L9">
-        <v>10.52113361855579</v>
+        <v>10.70589590426104</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.184728004486749</v>
       </c>
       <c r="N9">
-        <v>18.84370294367593</v>
+        <v>10.20123135178046</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>18.60236104832802</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.43373358305443</v>
+        <v>29.43314214634823</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.476020164147377</v>
+        <v>9.10726281668552</v>
       </c>
       <c r="E10">
-        <v>18.52908415998453</v>
+        <v>17.87844091162735</v>
       </c>
       <c r="F10">
-        <v>30.28018759137593</v>
+        <v>30.51288578018753</v>
       </c>
       <c r="G10">
-        <v>49.767501252682</v>
+        <v>50.80199525745402</v>
       </c>
       <c r="H10">
-        <v>2.52234182924087</v>
+        <v>2.518704782271214</v>
       </c>
       <c r="I10">
-        <v>3.242875765274905</v>
+        <v>3.091710468646764</v>
       </c>
       <c r="J10">
-        <v>13.40177433408834</v>
+        <v>13.51677978709882</v>
       </c>
       <c r="K10">
-        <v>13.4329051621557</v>
+        <v>13.00178332238975</v>
       </c>
       <c r="L10">
-        <v>11.22057197073728</v>
+        <v>10.61118107669921</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.519004973892697</v>
       </c>
       <c r="N10">
-        <v>20.41693719042832</v>
+        <v>10.88425062369763</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>20.11325340028883</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43263936540205</v>
+        <v>30.43414983418</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.01882497410595</v>
+        <v>9.515952867540447</v>
       </c>
       <c r="E11">
-        <v>20.2803609779433</v>
+        <v>19.37193263293575</v>
       </c>
       <c r="F11">
-        <v>28.58847948985368</v>
+        <v>28.77424398119949</v>
       </c>
       <c r="G11">
-        <v>48.05352164871812</v>
+        <v>50.21140664809368</v>
       </c>
       <c r="H11">
-        <v>3.360021474878068</v>
+        <v>3.331619067363666</v>
       </c>
       <c r="I11">
-        <v>3.156113438086409</v>
+        <v>3.034113495649606</v>
       </c>
       <c r="J11">
-        <v>12.89656737011905</v>
+        <v>12.34142333942926</v>
       </c>
       <c r="K11">
-        <v>13.83559466421185</v>
+        <v>13.27535000945204</v>
       </c>
       <c r="L11">
-        <v>12.2107422276781</v>
+        <v>10.99579940983692</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.593978394935494</v>
       </c>
       <c r="N11">
-        <v>20.63672427082729</v>
+        <v>11.75385590633138</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>20.05336612209502</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80228358974134</v>
+        <v>30.80418369887945</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.34867173052383</v>
+        <v>9.769307022584789</v>
       </c>
       <c r="E12">
-        <v>21.49441883335977</v>
+        <v>20.40340738813094</v>
       </c>
       <c r="F12">
-        <v>26.89282479184762</v>
+        <v>27.17455073919232</v>
       </c>
       <c r="G12">
-        <v>45.94907242131308</v>
+        <v>48.78422144159585</v>
       </c>
       <c r="H12">
-        <v>4.521156694498182</v>
+        <v>4.490989629245404</v>
       </c>
       <c r="I12">
-        <v>3.128960883741109</v>
+        <v>3.017203406919605</v>
       </c>
       <c r="J12">
-        <v>12.36267741237467</v>
+        <v>11.5517673969129</v>
       </c>
       <c r="K12">
-        <v>14.53235978491091</v>
+        <v>13.76674847137611</v>
       </c>
       <c r="L12">
-        <v>12.92389844296114</v>
+        <v>11.44641991347001</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.913184589223565</v>
       </c>
       <c r="N12">
-        <v>20.44870870917049</v>
+        <v>12.37103763112199</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>19.66912176432285</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72289571902002</v>
+        <v>30.72434489392549</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.54745721387717</v>
+        <v>9.951617410220299</v>
       </c>
       <c r="E13">
-        <v>22.42364756683833</v>
+        <v>21.21660977559506</v>
       </c>
       <c r="F13">
-        <v>24.97000045378051</v>
+        <v>25.55249090500213</v>
       </c>
       <c r="G13">
-        <v>43.22748634378493</v>
+        <v>46.33801067703546</v>
       </c>
       <c r="H13">
-        <v>5.760729446874365</v>
+        <v>5.737155741541305</v>
       </c>
       <c r="I13">
-        <v>3.1594715883647</v>
+        <v>3.045918245591416</v>
       </c>
       <c r="J13">
-        <v>11.73647561567437</v>
+        <v>11.12600870078634</v>
       </c>
       <c r="K13">
-        <v>15.44247947047723</v>
+        <v>14.37635574932452</v>
       </c>
       <c r="L13">
-        <v>13.49298107157991</v>
+        <v>11.89313568566474</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.400259257953794</v>
       </c>
       <c r="N13">
-        <v>19.96868559230477</v>
+        <v>12.86237991591339</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>19.0494830930833</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46315159309047</v>
+        <v>30.46385030751583</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.63183327841478</v>
+        <v>10.05169160727833</v>
       </c>
       <c r="E14">
-        <v>22.96630970638011</v>
+        <v>21.7056007110966</v>
       </c>
       <c r="F14">
-        <v>23.48871071031022</v>
+        <v>24.37515532369459</v>
       </c>
       <c r="G14">
-        <v>40.98135154296752</v>
+        <v>44.11478101792427</v>
       </c>
       <c r="H14">
-        <v>6.660426861168206</v>
+        <v>6.642689297771328</v>
       </c>
       <c r="I14">
-        <v>3.209241155475858</v>
+        <v>3.089727827960554</v>
       </c>
       <c r="J14">
-        <v>11.24691989364093</v>
+        <v>10.97428253369174</v>
       </c>
       <c r="K14">
-        <v>16.18348041900511</v>
+        <v>14.85360103229732</v>
       </c>
       <c r="L14">
-        <v>13.83802986188234</v>
+        <v>12.19726773808529</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.819867053212885</v>
       </c>
       <c r="N14">
-        <v>19.50127768523271</v>
+        <v>13.15952769278369</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>18.50587611060693</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.3030383216054</v>
+        <v>30.3033044073302</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.62575584460129</v>
+        <v>10.06153394092208</v>
       </c>
       <c r="E15">
-        <v>23.04376944916125</v>
+        <v>21.78271270966777</v>
       </c>
       <c r="F15">
-        <v>23.06267854421454</v>
+        <v>24.06343197422202</v>
       </c>
       <c r="G15">
-        <v>40.26972779960091</v>
+        <v>43.3362785346613</v>
       </c>
       <c r="H15">
-        <v>6.862332380009012</v>
+        <v>6.846945796906609</v>
       </c>
       <c r="I15">
-        <v>3.238027768778467</v>
+        <v>3.115285083843681</v>
       </c>
       <c r="J15">
-        <v>11.10310099993782</v>
+        <v>10.99671063797101</v>
       </c>
       <c r="K15">
-        <v>16.39130533335746</v>
+        <v>14.98093621972972</v>
       </c>
       <c r="L15">
-        <v>13.89339748204142</v>
+        <v>12.25861481095807</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.948584125604357</v>
       </c>
       <c r="N15">
-        <v>19.33343862040784</v>
+        <v>13.20673715626727</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>18.32973424741494</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36921597022546</v>
+        <v>29.3666426293038</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.33745493151274</v>
+        <v>9.878599331445887</v>
       </c>
       <c r="E16">
-        <v>22.36849110931119</v>
+        <v>21.23494219562073</v>
       </c>
       <c r="F16">
-        <v>22.69237746414242</v>
+        <v>23.9883297731932</v>
       </c>
       <c r="G16">
-        <v>39.05655100983256</v>
+        <v>41.46944810783187</v>
       </c>
       <c r="H16">
-        <v>6.55838774686706</v>
+        <v>6.553730875511965</v>
       </c>
       <c r="I16">
-        <v>3.370611787371177</v>
+        <v>3.223812374629128</v>
       </c>
       <c r="J16">
-        <v>10.94981786846226</v>
+        <v>11.52365575063333</v>
       </c>
       <c r="K16">
-        <v>16.3899875357267</v>
+        <v>14.92684176947574</v>
       </c>
       <c r="L16">
-        <v>13.52416408954048</v>
+        <v>12.02477743483767</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.06951784834385</v>
       </c>
       <c r="N16">
-        <v>18.74800681255417</v>
+        <v>12.88126526502681</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>17.85526577237267</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78156140528825</v>
+        <v>28.77684203560303</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.06545202970866</v>
+        <v>9.665351005784533</v>
       </c>
       <c r="E17">
-        <v>21.53518304946795</v>
+        <v>20.51477757871112</v>
       </c>
       <c r="F17">
-        <v>23.22904007870054</v>
+        <v>24.54143090184212</v>
       </c>
       <c r="G17">
-        <v>39.38743375688144</v>
+        <v>41.36072561533536</v>
       </c>
       <c r="H17">
-        <v>5.792852528361717</v>
+        <v>5.794487368095593</v>
       </c>
       <c r="I17">
-        <v>3.446293402884466</v>
+        <v>3.284886179675855</v>
       </c>
       <c r="J17">
-        <v>11.10236729241572</v>
+        <v>11.92575144304333</v>
       </c>
       <c r="K17">
-        <v>15.99929605941282</v>
+        <v>14.66201940747137</v>
       </c>
       <c r="L17">
-        <v>13.04304469614781</v>
+        <v>11.71591255731073</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.953990123297219</v>
       </c>
       <c r="N17">
-        <v>18.55260869911395</v>
+        <v>12.45613100694348</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>17.78045095124861</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43760595322129</v>
+        <v>28.43171292052119</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.777258464043401</v>
+        <v>9.41900829703601</v>
       </c>
       <c r="E18">
-        <v>20.47142096433857</v>
+        <v>19.58425859763053</v>
       </c>
       <c r="F18">
-        <v>24.62988924433509</v>
+        <v>25.7815749170766</v>
       </c>
       <c r="G18">
-        <v>41.13719108672954</v>
+        <v>42.68863930222553</v>
       </c>
       <c r="H18">
-        <v>4.578004686298725</v>
+        <v>4.585420810298772</v>
       </c>
       <c r="I18">
-        <v>3.470911350508266</v>
+        <v>3.299077873365801</v>
       </c>
       <c r="J18">
-        <v>11.54142375780929</v>
+        <v>12.40611086771252</v>
       </c>
       <c r="K18">
-        <v>15.27826261042319</v>
+        <v>14.20396991047757</v>
       </c>
       <c r="L18">
-        <v>12.41460972736284</v>
+        <v>11.32348731839185</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.631518574511693</v>
       </c>
       <c r="N18">
-        <v>18.66747983868638</v>
+        <v>11.90596523864863</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>18.03828464433607</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31932187633322</v>
+        <v>28.31343631530214</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.51528351812965</v>
+        <v>9.186700354420093</v>
       </c>
       <c r="E19">
-        <v>19.38443905129827</v>
+        <v>18.63103777127156</v>
       </c>
       <c r="F19">
-        <v>26.5084203793452</v>
+        <v>27.41134454381272</v>
       </c>
       <c r="G19">
-        <v>43.73077821465808</v>
+        <v>44.88227823533328</v>
       </c>
       <c r="H19">
-        <v>3.245848659070083</v>
+        <v>3.260169940085359</v>
       </c>
       <c r="I19">
-        <v>3.465617386680023</v>
+        <v>3.291781449969599</v>
       </c>
       <c r="J19">
-        <v>12.14152365380324</v>
+        <v>12.94085898715611</v>
       </c>
       <c r="K19">
-        <v>14.54038234963636</v>
+        <v>13.74615547581263</v>
       </c>
       <c r="L19">
-        <v>11.76931000824364</v>
+        <v>10.98101102555574</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.264274356712674</v>
       </c>
       <c r="N19">
-        <v>19.05780630279096</v>
+        <v>11.34360195643424</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>18.58456309482052</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.84192759041805</v>
+        <v>28.83923461598967</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.328382427363051</v>
+        <v>9.002417729426243</v>
       </c>
       <c r="E20">
-        <v>18.24591192607841</v>
+        <v>17.63424261762853</v>
       </c>
       <c r="F20">
-        <v>29.74720091336708</v>
+        <v>30.157718709424</v>
       </c>
       <c r="G20">
-        <v>48.65023854058016</v>
+        <v>49.43227475282836</v>
       </c>
       <c r="H20">
-        <v>2.382163761996968</v>
+        <v>2.393863746988993</v>
       </c>
       <c r="I20">
-        <v>3.349079216942589</v>
+        <v>3.189075660697636</v>
       </c>
       <c r="J20">
-        <v>13.20487361511531</v>
+        <v>13.657365581529</v>
       </c>
       <c r="K20">
-        <v>13.63166126535791</v>
+        <v>13.15431299831394</v>
       </c>
       <c r="L20">
-        <v>11.07880845897454</v>
+        <v>10.64052777128789</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.705063295188923</v>
       </c>
       <c r="N20">
-        <v>20.08075742297919</v>
+        <v>10.75091987402002</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>19.81353936226045</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54021931927668</v>
+        <v>30.54252852594018</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.753273130595245</v>
+        <v>9.243172289783306</v>
       </c>
       <c r="E21">
-        <v>19.0550654437547</v>
+        <v>18.25619093561935</v>
       </c>
       <c r="F21">
-        <v>31.29524835740215</v>
+        <v>30.96042154271242</v>
       </c>
       <c r="G21">
-        <v>51.88803972255906</v>
+        <v>53.83538683242568</v>
       </c>
       <c r="H21">
-        <v>2.802179607990988</v>
+        <v>2.76035207447919</v>
       </c>
       <c r="I21">
-        <v>3.10375940274863</v>
+        <v>2.989528147714094</v>
       </c>
       <c r="J21">
-        <v>13.77843827033582</v>
+        <v>12.74124159880863</v>
       </c>
       <c r="K21">
-        <v>13.08798822713485</v>
+        <v>12.76518618888066</v>
       </c>
       <c r="L21">
-        <v>11.48156912424152</v>
+        <v>10.61347266214835</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.197306964138317</v>
       </c>
       <c r="N21">
-        <v>21.34142556844298</v>
+        <v>11.10570585129756</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>20.92258287053382</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.60293647548366</v>
+        <v>31.60668253315106</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.03500528049081</v>
+        <v>9.40005822524709</v>
       </c>
       <c r="E22">
-        <v>19.61056030613556</v>
+        <v>18.67927273461535</v>
       </c>
       <c r="F22">
-        <v>32.22845657038673</v>
+        <v>31.38582706931551</v>
       </c>
       <c r="G22">
-        <v>53.85532446974769</v>
+        <v>56.60967727563057</v>
       </c>
       <c r="H22">
-        <v>3.068648974543755</v>
+        <v>2.991564016899752</v>
       </c>
       <c r="I22">
-        <v>2.937022741448085</v>
+        <v>2.850432589486726</v>
       </c>
       <c r="J22">
-        <v>14.13110431529743</v>
+        <v>12.05649403601279</v>
       </c>
       <c r="K22">
-        <v>12.74894892264632</v>
+        <v>12.53704153959308</v>
       </c>
       <c r="L22">
-        <v>11.762546134379</v>
+        <v>10.63017361250056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.879233875933894</v>
       </c>
       <c r="N22">
-        <v>22.07459947983087</v>
+        <v>11.35075281285251</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>21.54738701335585</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.04005660701766</v>
+        <v>31.04324236510081</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.880004094095018</v>
+        <v>9.330513162673574</v>
       </c>
       <c r="E23">
-        <v>19.29277870673969</v>
+        <v>18.45723436055318</v>
       </c>
       <c r="F23">
-        <v>31.78162376036911</v>
+        <v>31.27551929400878</v>
       </c>
       <c r="G23">
-        <v>52.8779662243639</v>
+        <v>55.05927117024191</v>
       </c>
       <c r="H23">
-        <v>2.926296339997735</v>
+        <v>2.870449175334607</v>
       </c>
       <c r="I23">
-        <v>3.015523256635423</v>
+        <v>2.910854416623988</v>
       </c>
       <c r="J23">
-        <v>13.95935780965236</v>
+        <v>12.59355328468888</v>
       </c>
       <c r="K23">
-        <v>12.91421485416991</v>
+        <v>12.6361658516118</v>
       </c>
       <c r="L23">
-        <v>11.60018619136074</v>
+        <v>10.59988317774507</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.035067182631602</v>
       </c>
       <c r="N23">
-        <v>21.65754451021532</v>
+        <v>11.21614317944201</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>21.20632528023144</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81325205913114</v>
+        <v>28.81053744542585</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.289712144922447</v>
+        <v>8.968629408765334</v>
       </c>
       <c r="E24">
-        <v>18.09431440580046</v>
+        <v>17.50083703350988</v>
       </c>
       <c r="F24">
-        <v>30.01684824748302</v>
+        <v>30.39206301883044</v>
       </c>
       <c r="G24">
-        <v>49.00956171465651</v>
+        <v>49.7240146935781</v>
       </c>
       <c r="H24">
-        <v>2.382943878859583</v>
+        <v>2.395717351268894</v>
       </c>
       <c r="I24">
-        <v>3.333641488354899</v>
+        <v>3.169450382558327</v>
       </c>
       <c r="J24">
-        <v>13.29085825672457</v>
+        <v>13.74084727899908</v>
       </c>
       <c r="K24">
-        <v>13.58065165383322</v>
+        <v>13.12247601084961</v>
       </c>
       <c r="L24">
-        <v>10.99253209465745</v>
+        <v>10.61295876986676</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.682042229488818</v>
       </c>
       <c r="N24">
-        <v>20.06186380946555</v>
+        <v>10.67496784152787</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>19.81794862787862</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20644168197738</v>
+        <v>26.19037195053616</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.62700318901674</v>
+        <v>8.343223844294343</v>
       </c>
       <c r="E25">
-        <v>16.73310663115323</v>
+        <v>16.15034145913833</v>
       </c>
       <c r="F25">
-        <v>28.1372583575036</v>
+        <v>28.62825017428201</v>
       </c>
       <c r="G25">
-        <v>44.71833114638514</v>
+        <v>45.3209507792205</v>
       </c>
       <c r="H25">
-        <v>1.783796413007706</v>
+        <v>1.843829961657256</v>
       </c>
       <c r="I25">
-        <v>3.686024787995413</v>
+        <v>3.469248039946446</v>
       </c>
       <c r="J25">
-        <v>12.58943376979303</v>
+        <v>13.19957324248998</v>
       </c>
       <c r="K25">
-        <v>14.32937483768365</v>
+        <v>13.76634205014765</v>
       </c>
       <c r="L25">
-        <v>10.30759984011219</v>
+        <v>10.77484190152832</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.458238124260609</v>
       </c>
       <c r="N25">
-        <v>18.27649345988588</v>
+        <v>9.985044018086162</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>18.03119315946939</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
